--- a/backend/src/main/resources/static/data/informe.xlsx
+++ b/backend/src/main/resources/static/data/informe.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="28">
   <si>
     <t>id_asistencia</t>
   </si>

--- a/backend/src/main/resources/static/data/informe.xlsx
+++ b/backend/src/main/resources/static/data/informe.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="28">
   <si>
     <t>id_asistencia</t>
   </si>

--- a/backend/src/main/resources/static/data/informe.xlsx
+++ b/backend/src/main/resources/static/data/informe.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>id_asistencia</t>
   </si>

--- a/backend/src/main/resources/static/data/informe.xlsx
+++ b/backend/src/main/resources/static/data/informe.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="62">
   <si>
     <t>id_asistencia</t>
   </si>
@@ -105,6 +105,108 @@
   </si>
   <si>
     <t>No entro</t>
+  </si>
+  <si>
+    <t>1054800789</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>5041863</t>
+  </si>
+  <si>
+    <t>2024-05-23 13:30:00.0</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>31794805</t>
+  </si>
+  <si>
+    <t>2024-05-23 16:30:00.0</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>1014481446</t>
+  </si>
+  <si>
+    <t>2024-05-23 08:30:00.0</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>1025532862</t>
+  </si>
+  <si>
+    <t>2024-05-23 08:46:00.0</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>1025461828</t>
+  </si>
+  <si>
+    <t>2024-05-23 11:46:00.0</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>1025143296</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>1013603750</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>1095485140</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>1013116433</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>1022334683</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>801226326072005</t>
+  </si>
+  <si>
+    <t>2024-05-23 13:46:00.0</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>1025324072</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>1011097437</t>
+  </si>
+  <si>
+    <t>95</t>
   </si>
 </sst>
 </file>
@@ -423,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:CZ15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
@@ -448,6 +550,4405 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" t="s">
+        <v>6</v>
+      </c>
+      <c r="U2" t="s">
+        <v>44</v>
+      </c>
+      <c r="V2" t="s">
+        <v>45</v>
+      </c>
+      <c r="W2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>28</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>26</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>26</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>26</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>26</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>26</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>26</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>26</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>26</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>26</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>26</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>26</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>26</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>26</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>26</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>26</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>26</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>26</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>26</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>26</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>26</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>26</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>26</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>26</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>26</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>26</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>26</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>26</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>26</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>26</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>26</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>26</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>26</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>26</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>26</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>26</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>26</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>26</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>26</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>26</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>26</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>26</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>26</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>26</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>26</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>26</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>26</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>26</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>26</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R3" t="s">
+        <v>42</v>
+      </c>
+      <c r="S3" t="s">
+        <v>43</v>
+      </c>
+      <c r="T3" t="s">
+        <v>6</v>
+      </c>
+      <c r="U3" t="s">
+        <v>44</v>
+      </c>
+      <c r="V3" t="s">
+        <v>45</v>
+      </c>
+      <c r="W3" t="s">
+        <v>43</v>
+      </c>
+      <c r="X3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>26</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>26</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>26</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>26</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>26</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>26</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>26</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>26</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>26</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>26</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>26</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>26</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>26</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>26</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>26</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>26</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>26</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>26</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>26</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>26</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>26</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>26</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>26</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>26</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>26</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>26</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>26</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>26</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>26</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>26</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>26</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>26</v>
+      </c>
+      <c r="CJ3" t="s">
+        <v>26</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>26</v>
+      </c>
+      <c r="CL3" t="s">
+        <v>26</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>26</v>
+      </c>
+      <c r="CN3" t="s">
+        <v>26</v>
+      </c>
+      <c r="CO3" t="s">
+        <v>26</v>
+      </c>
+      <c r="CP3" t="s">
+        <v>26</v>
+      </c>
+      <c r="CQ3" t="s">
+        <v>26</v>
+      </c>
+      <c r="CR3" t="s">
+        <v>26</v>
+      </c>
+      <c r="CS3" t="s">
+        <v>26</v>
+      </c>
+      <c r="CT3" t="s">
+        <v>26</v>
+      </c>
+      <c r="CU3" t="s">
+        <v>26</v>
+      </c>
+      <c r="CV3" t="s">
+        <v>26</v>
+      </c>
+      <c r="CW3" t="s">
+        <v>26</v>
+      </c>
+      <c r="CX3" t="s">
+        <v>26</v>
+      </c>
+      <c r="CY3" t="s">
+        <v>26</v>
+      </c>
+      <c r="CZ3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>41</v>
+      </c>
+      <c r="R4" t="s">
+        <v>42</v>
+      </c>
+      <c r="S4" t="s">
+        <v>43</v>
+      </c>
+      <c r="T4" t="s">
+        <v>6</v>
+      </c>
+      <c r="U4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V4" t="s">
+        <v>45</v>
+      </c>
+      <c r="W4" t="s">
+        <v>43</v>
+      </c>
+      <c r="X4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>6</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>28</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>26</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>26</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>26</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>26</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>26</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>26</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>26</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>26</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>26</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>26</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>26</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>26</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>26</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>26</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>26</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>26</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>26</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>26</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>26</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>26</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>26</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>26</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>26</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>26</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>26</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>26</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>26</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>26</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>26</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>26</v>
+      </c>
+      <c r="CH4" t="s">
+        <v>26</v>
+      </c>
+      <c r="CI4" t="s">
+        <v>26</v>
+      </c>
+      <c r="CJ4" t="s">
+        <v>26</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>26</v>
+      </c>
+      <c r="CL4" t="s">
+        <v>26</v>
+      </c>
+      <c r="CM4" t="s">
+        <v>26</v>
+      </c>
+      <c r="CN4" t="s">
+        <v>26</v>
+      </c>
+      <c r="CO4" t="s">
+        <v>26</v>
+      </c>
+      <c r="CP4" t="s">
+        <v>26</v>
+      </c>
+      <c r="CQ4" t="s">
+        <v>26</v>
+      </c>
+      <c r="CR4" t="s">
+        <v>26</v>
+      </c>
+      <c r="CS4" t="s">
+        <v>26</v>
+      </c>
+      <c r="CT4" t="s">
+        <v>26</v>
+      </c>
+      <c r="CU4" t="s">
+        <v>26</v>
+      </c>
+      <c r="CV4" t="s">
+        <v>26</v>
+      </c>
+      <c r="CW4" t="s">
+        <v>26</v>
+      </c>
+      <c r="CX4" t="s">
+        <v>26</v>
+      </c>
+      <c r="CY4" t="s">
+        <v>26</v>
+      </c>
+      <c r="CZ4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R5" t="s">
+        <v>42</v>
+      </c>
+      <c r="S5" t="s">
+        <v>43</v>
+      </c>
+      <c r="T5" t="s">
+        <v>6</v>
+      </c>
+      <c r="U5" t="s">
+        <v>44</v>
+      </c>
+      <c r="V5" t="s">
+        <v>45</v>
+      </c>
+      <c r="W5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>28</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>26</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>26</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>26</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>26</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>26</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>26</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>26</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>26</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>26</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>26</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>26</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>26</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>26</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>26</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>26</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>26</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>26</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>26</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>26</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>26</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>26</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>26</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>26</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>26</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>26</v>
+      </c>
+      <c r="CC5" t="s">
+        <v>26</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>26</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>26</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>26</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>26</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>26</v>
+      </c>
+      <c r="CI5" t="s">
+        <v>26</v>
+      </c>
+      <c r="CJ5" t="s">
+        <v>26</v>
+      </c>
+      <c r="CK5" t="s">
+        <v>26</v>
+      </c>
+      <c r="CL5" t="s">
+        <v>26</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>26</v>
+      </c>
+      <c r="CN5" t="s">
+        <v>26</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>26</v>
+      </c>
+      <c r="CP5" t="s">
+        <v>26</v>
+      </c>
+      <c r="CQ5" t="s">
+        <v>26</v>
+      </c>
+      <c r="CR5" t="s">
+        <v>26</v>
+      </c>
+      <c r="CS5" t="s">
+        <v>26</v>
+      </c>
+      <c r="CT5" t="s">
+        <v>26</v>
+      </c>
+      <c r="CU5" t="s">
+        <v>26</v>
+      </c>
+      <c r="CV5" t="s">
+        <v>26</v>
+      </c>
+      <c r="CW5" t="s">
+        <v>26</v>
+      </c>
+      <c r="CX5" t="s">
+        <v>26</v>
+      </c>
+      <c r="CY5" t="s">
+        <v>26</v>
+      </c>
+      <c r="CZ5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>41</v>
+      </c>
+      <c r="R6" t="s">
+        <v>42</v>
+      </c>
+      <c r="S6" t="s">
+        <v>43</v>
+      </c>
+      <c r="T6" t="s">
+        <v>6</v>
+      </c>
+      <c r="U6" t="s">
+        <v>44</v>
+      </c>
+      <c r="V6" t="s">
+        <v>45</v>
+      </c>
+      <c r="W6" t="s">
+        <v>43</v>
+      </c>
+      <c r="X6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>6</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>28</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>26</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>26</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>26</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>26</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>26</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>26</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>26</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>26</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>26</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>26</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>26</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>26</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>26</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>26</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>26</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>26</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>26</v>
+      </c>
+      <c r="BU6" t="s">
+        <v>26</v>
+      </c>
+      <c r="BV6" t="s">
+        <v>26</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>26</v>
+      </c>
+      <c r="BX6" t="s">
+        <v>26</v>
+      </c>
+      <c r="BY6" t="s">
+        <v>26</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>26</v>
+      </c>
+      <c r="CA6" t="s">
+        <v>26</v>
+      </c>
+      <c r="CB6" t="s">
+        <v>26</v>
+      </c>
+      <c r="CC6" t="s">
+        <v>26</v>
+      </c>
+      <c r="CD6" t="s">
+        <v>26</v>
+      </c>
+      <c r="CE6" t="s">
+        <v>26</v>
+      </c>
+      <c r="CF6" t="s">
+        <v>26</v>
+      </c>
+      <c r="CG6" t="s">
+        <v>26</v>
+      </c>
+      <c r="CH6" t="s">
+        <v>26</v>
+      </c>
+      <c r="CI6" t="s">
+        <v>26</v>
+      </c>
+      <c r="CJ6" t="s">
+        <v>26</v>
+      </c>
+      <c r="CK6" t="s">
+        <v>26</v>
+      </c>
+      <c r="CL6" t="s">
+        <v>26</v>
+      </c>
+      <c r="CM6" t="s">
+        <v>26</v>
+      </c>
+      <c r="CN6" t="s">
+        <v>26</v>
+      </c>
+      <c r="CO6" t="s">
+        <v>26</v>
+      </c>
+      <c r="CP6" t="s">
+        <v>26</v>
+      </c>
+      <c r="CQ6" t="s">
+        <v>26</v>
+      </c>
+      <c r="CR6" t="s">
+        <v>26</v>
+      </c>
+      <c r="CS6" t="s">
+        <v>26</v>
+      </c>
+      <c r="CT6" t="s">
+        <v>26</v>
+      </c>
+      <c r="CU6" t="s">
+        <v>26</v>
+      </c>
+      <c r="CV6" t="s">
+        <v>26</v>
+      </c>
+      <c r="CW6" t="s">
+        <v>26</v>
+      </c>
+      <c r="CX6" t="s">
+        <v>26</v>
+      </c>
+      <c r="CY6" t="s">
+        <v>26</v>
+      </c>
+      <c r="CZ6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>41</v>
+      </c>
+      <c r="R7" t="s">
+        <v>42</v>
+      </c>
+      <c r="S7" t="s">
+        <v>43</v>
+      </c>
+      <c r="T7" t="s">
+        <v>6</v>
+      </c>
+      <c r="U7" t="s">
+        <v>44</v>
+      </c>
+      <c r="V7" t="s">
+        <v>45</v>
+      </c>
+      <c r="W7" t="s">
+        <v>43</v>
+      </c>
+      <c r="X7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>28</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>26</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>26</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>26</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>26</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>26</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>26</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>26</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>26</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>26</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>26</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>26</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>26</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>26</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>26</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>26</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>26</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>26</v>
+      </c>
+      <c r="BU7" t="s">
+        <v>26</v>
+      </c>
+      <c r="BV7" t="s">
+        <v>26</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>26</v>
+      </c>
+      <c r="BX7" t="s">
+        <v>26</v>
+      </c>
+      <c r="BY7" t="s">
+        <v>26</v>
+      </c>
+      <c r="BZ7" t="s">
+        <v>26</v>
+      </c>
+      <c r="CA7" t="s">
+        <v>26</v>
+      </c>
+      <c r="CB7" t="s">
+        <v>26</v>
+      </c>
+      <c r="CC7" t="s">
+        <v>26</v>
+      </c>
+      <c r="CD7" t="s">
+        <v>26</v>
+      </c>
+      <c r="CE7" t="s">
+        <v>26</v>
+      </c>
+      <c r="CF7" t="s">
+        <v>26</v>
+      </c>
+      <c r="CG7" t="s">
+        <v>26</v>
+      </c>
+      <c r="CH7" t="s">
+        <v>26</v>
+      </c>
+      <c r="CI7" t="s">
+        <v>26</v>
+      </c>
+      <c r="CJ7" t="s">
+        <v>26</v>
+      </c>
+      <c r="CK7" t="s">
+        <v>26</v>
+      </c>
+      <c r="CL7" t="s">
+        <v>26</v>
+      </c>
+      <c r="CM7" t="s">
+        <v>26</v>
+      </c>
+      <c r="CN7" t="s">
+        <v>26</v>
+      </c>
+      <c r="CO7" t="s">
+        <v>26</v>
+      </c>
+      <c r="CP7" t="s">
+        <v>26</v>
+      </c>
+      <c r="CQ7" t="s">
+        <v>26</v>
+      </c>
+      <c r="CR7" t="s">
+        <v>26</v>
+      </c>
+      <c r="CS7" t="s">
+        <v>26</v>
+      </c>
+      <c r="CT7" t="s">
+        <v>26</v>
+      </c>
+      <c r="CU7" t="s">
+        <v>26</v>
+      </c>
+      <c r="CV7" t="s">
+        <v>26</v>
+      </c>
+      <c r="CW7" t="s">
+        <v>26</v>
+      </c>
+      <c r="CX7" t="s">
+        <v>26</v>
+      </c>
+      <c r="CY7" t="s">
+        <v>26</v>
+      </c>
+      <c r="CZ7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>41</v>
+      </c>
+      <c r="R8" t="s">
+        <v>42</v>
+      </c>
+      <c r="S8" t="s">
+        <v>43</v>
+      </c>
+      <c r="T8" t="s">
+        <v>6</v>
+      </c>
+      <c r="U8" t="s">
+        <v>44</v>
+      </c>
+      <c r="V8" t="s">
+        <v>45</v>
+      </c>
+      <c r="W8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>6</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>28</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>26</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>26</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>26</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>26</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>26</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>26</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>26</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>26</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>26</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>26</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>26</v>
+      </c>
+      <c r="BN8" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>26</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>26</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>26</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>26</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>26</v>
+      </c>
+      <c r="BT8" t="s">
+        <v>26</v>
+      </c>
+      <c r="BU8" t="s">
+        <v>26</v>
+      </c>
+      <c r="BV8" t="s">
+        <v>26</v>
+      </c>
+      <c r="BW8" t="s">
+        <v>26</v>
+      </c>
+      <c r="BX8" t="s">
+        <v>26</v>
+      </c>
+      <c r="BY8" t="s">
+        <v>26</v>
+      </c>
+      <c r="BZ8" t="s">
+        <v>26</v>
+      </c>
+      <c r="CA8" t="s">
+        <v>26</v>
+      </c>
+      <c r="CB8" t="s">
+        <v>26</v>
+      </c>
+      <c r="CC8" t="s">
+        <v>26</v>
+      </c>
+      <c r="CD8" t="s">
+        <v>26</v>
+      </c>
+      <c r="CE8" t="s">
+        <v>26</v>
+      </c>
+      <c r="CF8" t="s">
+        <v>26</v>
+      </c>
+      <c r="CG8" t="s">
+        <v>26</v>
+      </c>
+      <c r="CH8" t="s">
+        <v>26</v>
+      </c>
+      <c r="CI8" t="s">
+        <v>26</v>
+      </c>
+      <c r="CJ8" t="s">
+        <v>26</v>
+      </c>
+      <c r="CK8" t="s">
+        <v>26</v>
+      </c>
+      <c r="CL8" t="s">
+        <v>26</v>
+      </c>
+      <c r="CM8" t="s">
+        <v>26</v>
+      </c>
+      <c r="CN8" t="s">
+        <v>26</v>
+      </c>
+      <c r="CO8" t="s">
+        <v>26</v>
+      </c>
+      <c r="CP8" t="s">
+        <v>26</v>
+      </c>
+      <c r="CQ8" t="s">
+        <v>26</v>
+      </c>
+      <c r="CR8" t="s">
+        <v>26</v>
+      </c>
+      <c r="CS8" t="s">
+        <v>26</v>
+      </c>
+      <c r="CT8" t="s">
+        <v>26</v>
+      </c>
+      <c r="CU8" t="s">
+        <v>26</v>
+      </c>
+      <c r="CV8" t="s">
+        <v>26</v>
+      </c>
+      <c r="CW8" t="s">
+        <v>26</v>
+      </c>
+      <c r="CX8" t="s">
+        <v>26</v>
+      </c>
+      <c r="CY8" t="s">
+        <v>26</v>
+      </c>
+      <c r="CZ8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" t="s">
+        <v>38</v>
+      </c>
+      <c r="N9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" t="s">
+        <v>40</v>
+      </c>
+      <c r="P9" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>41</v>
+      </c>
+      <c r="R9" t="s">
+        <v>42</v>
+      </c>
+      <c r="S9" t="s">
+        <v>43</v>
+      </c>
+      <c r="T9" t="s">
+        <v>6</v>
+      </c>
+      <c r="U9" t="s">
+        <v>44</v>
+      </c>
+      <c r="V9" t="s">
+        <v>45</v>
+      </c>
+      <c r="W9" t="s">
+        <v>43</v>
+      </c>
+      <c r="X9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>6</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>28</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>26</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>26</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>26</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>26</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>26</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>26</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>26</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>26</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>26</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>26</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>26</v>
+      </c>
+      <c r="BN9" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO9" t="s">
+        <v>26</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>26</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>26</v>
+      </c>
+      <c r="BR9" t="s">
+        <v>26</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>26</v>
+      </c>
+      <c r="BT9" t="s">
+        <v>26</v>
+      </c>
+      <c r="BU9" t="s">
+        <v>26</v>
+      </c>
+      <c r="BV9" t="s">
+        <v>26</v>
+      </c>
+      <c r="BW9" t="s">
+        <v>26</v>
+      </c>
+      <c r="BX9" t="s">
+        <v>26</v>
+      </c>
+      <c r="BY9" t="s">
+        <v>26</v>
+      </c>
+      <c r="BZ9" t="s">
+        <v>26</v>
+      </c>
+      <c r="CA9" t="s">
+        <v>26</v>
+      </c>
+      <c r="CB9" t="s">
+        <v>26</v>
+      </c>
+      <c r="CC9" t="s">
+        <v>26</v>
+      </c>
+      <c r="CD9" t="s">
+        <v>26</v>
+      </c>
+      <c r="CE9" t="s">
+        <v>26</v>
+      </c>
+      <c r="CF9" t="s">
+        <v>26</v>
+      </c>
+      <c r="CG9" t="s">
+        <v>26</v>
+      </c>
+      <c r="CH9" t="s">
+        <v>26</v>
+      </c>
+      <c r="CI9" t="s">
+        <v>26</v>
+      </c>
+      <c r="CJ9" t="s">
+        <v>26</v>
+      </c>
+      <c r="CK9" t="s">
+        <v>26</v>
+      </c>
+      <c r="CL9" t="s">
+        <v>26</v>
+      </c>
+      <c r="CM9" t="s">
+        <v>26</v>
+      </c>
+      <c r="CN9" t="s">
+        <v>26</v>
+      </c>
+      <c r="CO9" t="s">
+        <v>26</v>
+      </c>
+      <c r="CP9" t="s">
+        <v>26</v>
+      </c>
+      <c r="CQ9" t="s">
+        <v>26</v>
+      </c>
+      <c r="CR9" t="s">
+        <v>26</v>
+      </c>
+      <c r="CS9" t="s">
+        <v>26</v>
+      </c>
+      <c r="CT9" t="s">
+        <v>26</v>
+      </c>
+      <c r="CU9" t="s">
+        <v>26</v>
+      </c>
+      <c r="CV9" t="s">
+        <v>26</v>
+      </c>
+      <c r="CW9" t="s">
+        <v>26</v>
+      </c>
+      <c r="CX9" t="s">
+        <v>26</v>
+      </c>
+      <c r="CY9" t="s">
+        <v>26</v>
+      </c>
+      <c r="CZ9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" t="s">
+        <v>37</v>
+      </c>
+      <c r="L10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N10" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" t="s">
+        <v>40</v>
+      </c>
+      <c r="P10" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>41</v>
+      </c>
+      <c r="R10" t="s">
+        <v>42</v>
+      </c>
+      <c r="S10" t="s">
+        <v>43</v>
+      </c>
+      <c r="T10" t="s">
+        <v>6</v>
+      </c>
+      <c r="U10" t="s">
+        <v>44</v>
+      </c>
+      <c r="V10" t="s">
+        <v>45</v>
+      </c>
+      <c r="W10" t="s">
+        <v>43</v>
+      </c>
+      <c r="X10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>6</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>28</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>26</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>26</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>26</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>26</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>26</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>26</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>26</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>26</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>26</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>26</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>26</v>
+      </c>
+      <c r="BN10" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>26</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>26</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>26</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>26</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>26</v>
+      </c>
+      <c r="BT10" t="s">
+        <v>26</v>
+      </c>
+      <c r="BU10" t="s">
+        <v>26</v>
+      </c>
+      <c r="BV10" t="s">
+        <v>26</v>
+      </c>
+      <c r="BW10" t="s">
+        <v>26</v>
+      </c>
+      <c r="BX10" t="s">
+        <v>26</v>
+      </c>
+      <c r="BY10" t="s">
+        <v>26</v>
+      </c>
+      <c r="BZ10" t="s">
+        <v>26</v>
+      </c>
+      <c r="CA10" t="s">
+        <v>26</v>
+      </c>
+      <c r="CB10" t="s">
+        <v>26</v>
+      </c>
+      <c r="CC10" t="s">
+        <v>26</v>
+      </c>
+      <c r="CD10" t="s">
+        <v>26</v>
+      </c>
+      <c r="CE10" t="s">
+        <v>26</v>
+      </c>
+      <c r="CF10" t="s">
+        <v>26</v>
+      </c>
+      <c r="CG10" t="s">
+        <v>26</v>
+      </c>
+      <c r="CH10" t="s">
+        <v>26</v>
+      </c>
+      <c r="CI10" t="s">
+        <v>26</v>
+      </c>
+      <c r="CJ10" t="s">
+        <v>26</v>
+      </c>
+      <c r="CK10" t="s">
+        <v>26</v>
+      </c>
+      <c r="CL10" t="s">
+        <v>26</v>
+      </c>
+      <c r="CM10" t="s">
+        <v>26</v>
+      </c>
+      <c r="CN10" t="s">
+        <v>26</v>
+      </c>
+      <c r="CO10" t="s">
+        <v>26</v>
+      </c>
+      <c r="CP10" t="s">
+        <v>26</v>
+      </c>
+      <c r="CQ10" t="s">
+        <v>26</v>
+      </c>
+      <c r="CR10" t="s">
+        <v>26</v>
+      </c>
+      <c r="CS10" t="s">
+        <v>26</v>
+      </c>
+      <c r="CT10" t="s">
+        <v>26</v>
+      </c>
+      <c r="CU10" t="s">
+        <v>26</v>
+      </c>
+      <c r="CV10" t="s">
+        <v>26</v>
+      </c>
+      <c r="CW10" t="s">
+        <v>26</v>
+      </c>
+      <c r="CX10" t="s">
+        <v>26</v>
+      </c>
+      <c r="CY10" t="s">
+        <v>26</v>
+      </c>
+      <c r="CZ10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" t="s">
+        <v>39</v>
+      </c>
+      <c r="O11" t="s">
+        <v>40</v>
+      </c>
+      <c r="P11" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>41</v>
+      </c>
+      <c r="R11" t="s">
+        <v>42</v>
+      </c>
+      <c r="S11" t="s">
+        <v>43</v>
+      </c>
+      <c r="T11" t="s">
+        <v>6</v>
+      </c>
+      <c r="U11" t="s">
+        <v>44</v>
+      </c>
+      <c r="V11" t="s">
+        <v>45</v>
+      </c>
+      <c r="W11" t="s">
+        <v>43</v>
+      </c>
+      <c r="X11" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>6</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>28</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>26</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>26</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>26</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>26</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>26</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>26</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>26</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>26</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>26</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>26</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>26</v>
+      </c>
+      <c r="BN11" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>26</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>26</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>26</v>
+      </c>
+      <c r="BR11" t="s">
+        <v>26</v>
+      </c>
+      <c r="BS11" t="s">
+        <v>26</v>
+      </c>
+      <c r="BT11" t="s">
+        <v>26</v>
+      </c>
+      <c r="BU11" t="s">
+        <v>26</v>
+      </c>
+      <c r="BV11" t="s">
+        <v>26</v>
+      </c>
+      <c r="BW11" t="s">
+        <v>26</v>
+      </c>
+      <c r="BX11" t="s">
+        <v>26</v>
+      </c>
+      <c r="BY11" t="s">
+        <v>26</v>
+      </c>
+      <c r="BZ11" t="s">
+        <v>26</v>
+      </c>
+      <c r="CA11" t="s">
+        <v>26</v>
+      </c>
+      <c r="CB11" t="s">
+        <v>26</v>
+      </c>
+      <c r="CC11" t="s">
+        <v>26</v>
+      </c>
+      <c r="CD11" t="s">
+        <v>26</v>
+      </c>
+      <c r="CE11" t="s">
+        <v>26</v>
+      </c>
+      <c r="CF11" t="s">
+        <v>26</v>
+      </c>
+      <c r="CG11" t="s">
+        <v>26</v>
+      </c>
+      <c r="CH11" t="s">
+        <v>26</v>
+      </c>
+      <c r="CI11" t="s">
+        <v>26</v>
+      </c>
+      <c r="CJ11" t="s">
+        <v>26</v>
+      </c>
+      <c r="CK11" t="s">
+        <v>26</v>
+      </c>
+      <c r="CL11" t="s">
+        <v>26</v>
+      </c>
+      <c r="CM11" t="s">
+        <v>26</v>
+      </c>
+      <c r="CN11" t="s">
+        <v>26</v>
+      </c>
+      <c r="CO11" t="s">
+        <v>26</v>
+      </c>
+      <c r="CP11" t="s">
+        <v>26</v>
+      </c>
+      <c r="CQ11" t="s">
+        <v>26</v>
+      </c>
+      <c r="CR11" t="s">
+        <v>26</v>
+      </c>
+      <c r="CS11" t="s">
+        <v>26</v>
+      </c>
+      <c r="CT11" t="s">
+        <v>26</v>
+      </c>
+      <c r="CU11" t="s">
+        <v>26</v>
+      </c>
+      <c r="CV11" t="s">
+        <v>26</v>
+      </c>
+      <c r="CW11" t="s">
+        <v>26</v>
+      </c>
+      <c r="CX11" t="s">
+        <v>26</v>
+      </c>
+      <c r="CY11" t="s">
+        <v>26</v>
+      </c>
+      <c r="CZ11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" t="s">
+        <v>38</v>
+      </c>
+      <c r="N12" t="s">
+        <v>39</v>
+      </c>
+      <c r="O12" t="s">
+        <v>40</v>
+      </c>
+      <c r="P12" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>41</v>
+      </c>
+      <c r="R12" t="s">
+        <v>42</v>
+      </c>
+      <c r="S12" t="s">
+        <v>43</v>
+      </c>
+      <c r="T12" t="s">
+        <v>6</v>
+      </c>
+      <c r="U12" t="s">
+        <v>44</v>
+      </c>
+      <c r="V12" t="s">
+        <v>45</v>
+      </c>
+      <c r="W12" t="s">
+        <v>43</v>
+      </c>
+      <c r="X12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>6</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>28</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>26</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>26</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>26</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>26</v>
+      </c>
+      <c r="BG12" t="s">
+        <v>26</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>26</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>26</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>26</v>
+      </c>
+      <c r="BK12" t="s">
+        <v>26</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>26</v>
+      </c>
+      <c r="BM12" t="s">
+        <v>26</v>
+      </c>
+      <c r="BN12" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO12" t="s">
+        <v>26</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>26</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>26</v>
+      </c>
+      <c r="BR12" t="s">
+        <v>26</v>
+      </c>
+      <c r="BS12" t="s">
+        <v>26</v>
+      </c>
+      <c r="BT12" t="s">
+        <v>26</v>
+      </c>
+      <c r="BU12" t="s">
+        <v>26</v>
+      </c>
+      <c r="BV12" t="s">
+        <v>26</v>
+      </c>
+      <c r="BW12" t="s">
+        <v>26</v>
+      </c>
+      <c r="BX12" t="s">
+        <v>26</v>
+      </c>
+      <c r="BY12" t="s">
+        <v>26</v>
+      </c>
+      <c r="BZ12" t="s">
+        <v>26</v>
+      </c>
+      <c r="CA12" t="s">
+        <v>26</v>
+      </c>
+      <c r="CB12" t="s">
+        <v>26</v>
+      </c>
+      <c r="CC12" t="s">
+        <v>26</v>
+      </c>
+      <c r="CD12" t="s">
+        <v>26</v>
+      </c>
+      <c r="CE12" t="s">
+        <v>26</v>
+      </c>
+      <c r="CF12" t="s">
+        <v>26</v>
+      </c>
+      <c r="CG12" t="s">
+        <v>26</v>
+      </c>
+      <c r="CH12" t="s">
+        <v>26</v>
+      </c>
+      <c r="CI12" t="s">
+        <v>26</v>
+      </c>
+      <c r="CJ12" t="s">
+        <v>26</v>
+      </c>
+      <c r="CK12" t="s">
+        <v>26</v>
+      </c>
+      <c r="CL12" t="s">
+        <v>26</v>
+      </c>
+      <c r="CM12" t="s">
+        <v>26</v>
+      </c>
+      <c r="CN12" t="s">
+        <v>26</v>
+      </c>
+      <c r="CO12" t="s">
+        <v>26</v>
+      </c>
+      <c r="CP12" t="s">
+        <v>26</v>
+      </c>
+      <c r="CQ12" t="s">
+        <v>26</v>
+      </c>
+      <c r="CR12" t="s">
+        <v>26</v>
+      </c>
+      <c r="CS12" t="s">
+        <v>26</v>
+      </c>
+      <c r="CT12" t="s">
+        <v>26</v>
+      </c>
+      <c r="CU12" t="s">
+        <v>26</v>
+      </c>
+      <c r="CV12" t="s">
+        <v>26</v>
+      </c>
+      <c r="CW12" t="s">
+        <v>26</v>
+      </c>
+      <c r="CX12" t="s">
+        <v>26</v>
+      </c>
+      <c r="CY12" t="s">
+        <v>26</v>
+      </c>
+      <c r="CZ12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" t="s">
+        <v>38</v>
+      </c>
+      <c r="N13" t="s">
+        <v>39</v>
+      </c>
+      <c r="O13" t="s">
+        <v>40</v>
+      </c>
+      <c r="P13" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>41</v>
+      </c>
+      <c r="R13" t="s">
+        <v>42</v>
+      </c>
+      <c r="S13" t="s">
+        <v>43</v>
+      </c>
+      <c r="T13" t="s">
+        <v>6</v>
+      </c>
+      <c r="U13" t="s">
+        <v>44</v>
+      </c>
+      <c r="V13" t="s">
+        <v>45</v>
+      </c>
+      <c r="W13" t="s">
+        <v>43</v>
+      </c>
+      <c r="X13" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>6</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>28</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>26</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>26</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>26</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>26</v>
+      </c>
+      <c r="BG13" t="s">
+        <v>26</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>26</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>26</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>26</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>26</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>26</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>26</v>
+      </c>
+      <c r="BN13" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO13" t="s">
+        <v>26</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>26</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>26</v>
+      </c>
+      <c r="BR13" t="s">
+        <v>26</v>
+      </c>
+      <c r="BS13" t="s">
+        <v>26</v>
+      </c>
+      <c r="BT13" t="s">
+        <v>26</v>
+      </c>
+      <c r="BU13" t="s">
+        <v>26</v>
+      </c>
+      <c r="BV13" t="s">
+        <v>26</v>
+      </c>
+      <c r="BW13" t="s">
+        <v>26</v>
+      </c>
+      <c r="BX13" t="s">
+        <v>26</v>
+      </c>
+      <c r="BY13" t="s">
+        <v>26</v>
+      </c>
+      <c r="BZ13" t="s">
+        <v>26</v>
+      </c>
+      <c r="CA13" t="s">
+        <v>26</v>
+      </c>
+      <c r="CB13" t="s">
+        <v>26</v>
+      </c>
+      <c r="CC13" t="s">
+        <v>26</v>
+      </c>
+      <c r="CD13" t="s">
+        <v>26</v>
+      </c>
+      <c r="CE13" t="s">
+        <v>26</v>
+      </c>
+      <c r="CF13" t="s">
+        <v>26</v>
+      </c>
+      <c r="CG13" t="s">
+        <v>26</v>
+      </c>
+      <c r="CH13" t="s">
+        <v>26</v>
+      </c>
+      <c r="CI13" t="s">
+        <v>26</v>
+      </c>
+      <c r="CJ13" t="s">
+        <v>26</v>
+      </c>
+      <c r="CK13" t="s">
+        <v>26</v>
+      </c>
+      <c r="CL13" t="s">
+        <v>26</v>
+      </c>
+      <c r="CM13" t="s">
+        <v>26</v>
+      </c>
+      <c r="CN13" t="s">
+        <v>26</v>
+      </c>
+      <c r="CO13" t="s">
+        <v>26</v>
+      </c>
+      <c r="CP13" t="s">
+        <v>26</v>
+      </c>
+      <c r="CQ13" t="s">
+        <v>26</v>
+      </c>
+      <c r="CR13" t="s">
+        <v>26</v>
+      </c>
+      <c r="CS13" t="s">
+        <v>26</v>
+      </c>
+      <c r="CT13" t="s">
+        <v>26</v>
+      </c>
+      <c r="CU13" t="s">
+        <v>26</v>
+      </c>
+      <c r="CV13" t="s">
+        <v>26</v>
+      </c>
+      <c r="CW13" t="s">
+        <v>26</v>
+      </c>
+      <c r="CX13" t="s">
+        <v>26</v>
+      </c>
+      <c r="CY13" t="s">
+        <v>26</v>
+      </c>
+      <c r="CZ13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" t="s">
+        <v>37</v>
+      </c>
+      <c r="L14" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" t="s">
+        <v>38</v>
+      </c>
+      <c r="N14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" t="s">
+        <v>40</v>
+      </c>
+      <c r="P14" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>41</v>
+      </c>
+      <c r="R14" t="s">
+        <v>42</v>
+      </c>
+      <c r="S14" t="s">
+        <v>43</v>
+      </c>
+      <c r="T14" t="s">
+        <v>6</v>
+      </c>
+      <c r="U14" t="s">
+        <v>44</v>
+      </c>
+      <c r="V14" t="s">
+        <v>45</v>
+      </c>
+      <c r="W14" t="s">
+        <v>43</v>
+      </c>
+      <c r="X14" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>60</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>6</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>28</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>26</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>26</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>26</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>26</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>26</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>26</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>26</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>26</v>
+      </c>
+      <c r="BK14" t="s">
+        <v>26</v>
+      </c>
+      <c r="BL14" t="s">
+        <v>26</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>26</v>
+      </c>
+      <c r="BN14" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO14" t="s">
+        <v>26</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>26</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>26</v>
+      </c>
+      <c r="BR14" t="s">
+        <v>26</v>
+      </c>
+      <c r="BS14" t="s">
+        <v>26</v>
+      </c>
+      <c r="BT14" t="s">
+        <v>26</v>
+      </c>
+      <c r="BU14" t="s">
+        <v>26</v>
+      </c>
+      <c r="BV14" t="s">
+        <v>26</v>
+      </c>
+      <c r="BW14" t="s">
+        <v>26</v>
+      </c>
+      <c r="BX14" t="s">
+        <v>26</v>
+      </c>
+      <c r="BY14" t="s">
+        <v>26</v>
+      </c>
+      <c r="BZ14" t="s">
+        <v>26</v>
+      </c>
+      <c r="CA14" t="s">
+        <v>26</v>
+      </c>
+      <c r="CB14" t="s">
+        <v>26</v>
+      </c>
+      <c r="CC14" t="s">
+        <v>26</v>
+      </c>
+      <c r="CD14" t="s">
+        <v>26</v>
+      </c>
+      <c r="CE14" t="s">
+        <v>26</v>
+      </c>
+      <c r="CF14" t="s">
+        <v>26</v>
+      </c>
+      <c r="CG14" t="s">
+        <v>26</v>
+      </c>
+      <c r="CH14" t="s">
+        <v>26</v>
+      </c>
+      <c r="CI14" t="s">
+        <v>26</v>
+      </c>
+      <c r="CJ14" t="s">
+        <v>26</v>
+      </c>
+      <c r="CK14" t="s">
+        <v>26</v>
+      </c>
+      <c r="CL14" t="s">
+        <v>26</v>
+      </c>
+      <c r="CM14" t="s">
+        <v>26</v>
+      </c>
+      <c r="CN14" t="s">
+        <v>26</v>
+      </c>
+      <c r="CO14" t="s">
+        <v>26</v>
+      </c>
+      <c r="CP14" t="s">
+        <v>26</v>
+      </c>
+      <c r="CQ14" t="s">
+        <v>26</v>
+      </c>
+      <c r="CR14" t="s">
+        <v>26</v>
+      </c>
+      <c r="CS14" t="s">
+        <v>26</v>
+      </c>
+      <c r="CT14" t="s">
+        <v>26</v>
+      </c>
+      <c r="CU14" t="s">
+        <v>26</v>
+      </c>
+      <c r="CV14" t="s">
+        <v>26</v>
+      </c>
+      <c r="CW14" t="s">
+        <v>26</v>
+      </c>
+      <c r="CX14" t="s">
+        <v>26</v>
+      </c>
+      <c r="CY14" t="s">
+        <v>26</v>
+      </c>
+      <c r="CZ14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15" t="s">
+        <v>37</v>
+      </c>
+      <c r="L15" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N15" t="s">
+        <v>39</v>
+      </c>
+      <c r="O15" t="s">
+        <v>40</v>
+      </c>
+      <c r="P15" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>41</v>
+      </c>
+      <c r="R15" t="s">
+        <v>42</v>
+      </c>
+      <c r="S15" t="s">
+        <v>43</v>
+      </c>
+      <c r="T15" t="s">
+        <v>6</v>
+      </c>
+      <c r="U15" t="s">
+        <v>44</v>
+      </c>
+      <c r="V15" t="s">
+        <v>45</v>
+      </c>
+      <c r="W15" t="s">
+        <v>43</v>
+      </c>
+      <c r="X15" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>6</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>28</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>26</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>26</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>26</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>26</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>26</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>26</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>26</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>26</v>
+      </c>
+      <c r="BK15" t="s">
+        <v>26</v>
+      </c>
+      <c r="BL15" t="s">
+        <v>26</v>
+      </c>
+      <c r="BM15" t="s">
+        <v>26</v>
+      </c>
+      <c r="BN15" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO15" t="s">
+        <v>26</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>26</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>26</v>
+      </c>
+      <c r="BR15" t="s">
+        <v>26</v>
+      </c>
+      <c r="BS15" t="s">
+        <v>26</v>
+      </c>
+      <c r="BT15" t="s">
+        <v>26</v>
+      </c>
+      <c r="BU15" t="s">
+        <v>26</v>
+      </c>
+      <c r="BV15" t="s">
+        <v>26</v>
+      </c>
+      <c r="BW15" t="s">
+        <v>26</v>
+      </c>
+      <c r="BX15" t="s">
+        <v>26</v>
+      </c>
+      <c r="BY15" t="s">
+        <v>26</v>
+      </c>
+      <c r="BZ15" t="s">
+        <v>26</v>
+      </c>
+      <c r="CA15" t="s">
+        <v>26</v>
+      </c>
+      <c r="CB15" t="s">
+        <v>26</v>
+      </c>
+      <c r="CC15" t="s">
+        <v>26</v>
+      </c>
+      <c r="CD15" t="s">
+        <v>26</v>
+      </c>
+      <c r="CE15" t="s">
+        <v>26</v>
+      </c>
+      <c r="CF15" t="s">
+        <v>26</v>
+      </c>
+      <c r="CG15" t="s">
+        <v>26</v>
+      </c>
+      <c r="CH15" t="s">
+        <v>26</v>
+      </c>
+      <c r="CI15" t="s">
+        <v>26</v>
+      </c>
+      <c r="CJ15" t="s">
+        <v>26</v>
+      </c>
+      <c r="CK15" t="s">
+        <v>26</v>
+      </c>
+      <c r="CL15" t="s">
+        <v>26</v>
+      </c>
+      <c r="CM15" t="s">
+        <v>26</v>
+      </c>
+      <c r="CN15" t="s">
+        <v>26</v>
+      </c>
+      <c r="CO15" t="s">
+        <v>26</v>
+      </c>
+      <c r="CP15" t="s">
+        <v>26</v>
+      </c>
+      <c r="CQ15" t="s">
+        <v>26</v>
+      </c>
+      <c r="CR15" t="s">
+        <v>26</v>
+      </c>
+      <c r="CS15" t="s">
+        <v>26</v>
+      </c>
+      <c r="CT15" t="s">
+        <v>26</v>
+      </c>
+      <c r="CU15" t="s">
+        <v>26</v>
+      </c>
+      <c r="CV15" t="s">
+        <v>26</v>
+      </c>
+      <c r="CW15" t="s">
+        <v>26</v>
+      </c>
+      <c r="CX15" t="s">
+        <v>26</v>
+      </c>
+      <c r="CY15" t="s">
+        <v>26</v>
+      </c>
+      <c r="CZ15" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/backend/src/main/resources/static/data/informe.xlsx
+++ b/backend/src/main/resources/static/data/informe.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138312" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159706" uniqueCount="245">
   <si>
     <t>id_asistencia</t>
   </si>
@@ -748,6 +748,15 @@
   <si>
     <t>55</t>
   </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>2024-07-04 06:46:00.0</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
 </sst>
 </file>
 
@@ -1065,7 +1074,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:JL36"/>
+  <dimension ref="A1:KB38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
@@ -1510,28 +1519,28 @@
         <v>229</v>
       </c>
       <c r="EI2" t="s">
-        <v>26</v>
+        <v>240</v>
       </c>
       <c r="EJ2" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EK2" t="s">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="EL2" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EM2" t="s">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="EN2" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EO2" t="s">
-        <v>26</v>
+        <v>244</v>
       </c>
       <c r="EP2" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EQ2" t="s">
         <v>26</v>
@@ -1909,6 +1918,54 @@
         <v>26</v>
       </c>
       <c r="JL2" t="s">
+        <v>26</v>
+      </c>
+      <c r="JM2" t="s">
+        <v>26</v>
+      </c>
+      <c r="JN2" t="s">
+        <v>26</v>
+      </c>
+      <c r="JO2" t="s">
+        <v>26</v>
+      </c>
+      <c r="JP2" t="s">
+        <v>26</v>
+      </c>
+      <c r="JQ2" t="s">
+        <v>26</v>
+      </c>
+      <c r="JR2" t="s">
+        <v>26</v>
+      </c>
+      <c r="JS2" t="s">
+        <v>26</v>
+      </c>
+      <c r="JT2" t="s">
+        <v>26</v>
+      </c>
+      <c r="JU2" t="s">
+        <v>26</v>
+      </c>
+      <c r="JV2" t="s">
+        <v>26</v>
+      </c>
+      <c r="JW2" t="s">
+        <v>26</v>
+      </c>
+      <c r="JX2" t="s">
+        <v>26</v>
+      </c>
+      <c r="JY2" t="s">
+        <v>26</v>
+      </c>
+      <c r="JZ2" t="s">
+        <v>26</v>
+      </c>
+      <c r="KA2" t="s">
+        <v>26</v>
+      </c>
+      <c r="KB2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2328,28 +2385,28 @@
         <v>229</v>
       </c>
       <c r="EI3" t="s">
-        <v>26</v>
+        <v>240</v>
       </c>
       <c r="EJ3" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EK3" t="s">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="EL3" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EM3" t="s">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="EN3" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EO3" t="s">
-        <v>26</v>
+        <v>244</v>
       </c>
       <c r="EP3" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EQ3" t="s">
         <v>26</v>
@@ -2727,6 +2784,54 @@
         <v>26</v>
       </c>
       <c r="JL3" t="s">
+        <v>26</v>
+      </c>
+      <c r="JM3" t="s">
+        <v>26</v>
+      </c>
+      <c r="JN3" t="s">
+        <v>26</v>
+      </c>
+      <c r="JO3" t="s">
+        <v>26</v>
+      </c>
+      <c r="JP3" t="s">
+        <v>26</v>
+      </c>
+      <c r="JQ3" t="s">
+        <v>26</v>
+      </c>
+      <c r="JR3" t="s">
+        <v>26</v>
+      </c>
+      <c r="JS3" t="s">
+        <v>26</v>
+      </c>
+      <c r="JT3" t="s">
+        <v>26</v>
+      </c>
+      <c r="JU3" t="s">
+        <v>26</v>
+      </c>
+      <c r="JV3" t="s">
+        <v>26</v>
+      </c>
+      <c r="JW3" t="s">
+        <v>26</v>
+      </c>
+      <c r="JX3" t="s">
+        <v>26</v>
+      </c>
+      <c r="JY3" t="s">
+        <v>26</v>
+      </c>
+      <c r="JZ3" t="s">
+        <v>26</v>
+      </c>
+      <c r="KA3" t="s">
+        <v>26</v>
+      </c>
+      <c r="KB3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3146,28 +3251,28 @@
         <v>229</v>
       </c>
       <c r="EI4" t="s">
-        <v>26</v>
+        <v>240</v>
       </c>
       <c r="EJ4" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EK4" t="s">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="EL4" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EM4" t="s">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="EN4" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EO4" t="s">
-        <v>26</v>
+        <v>244</v>
       </c>
       <c r="EP4" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EQ4" t="s">
         <v>26</v>
@@ -3545,6 +3650,54 @@
         <v>26</v>
       </c>
       <c r="JL4" t="s">
+        <v>26</v>
+      </c>
+      <c r="JM4" t="s">
+        <v>26</v>
+      </c>
+      <c r="JN4" t="s">
+        <v>26</v>
+      </c>
+      <c r="JO4" t="s">
+        <v>26</v>
+      </c>
+      <c r="JP4" t="s">
+        <v>26</v>
+      </c>
+      <c r="JQ4" t="s">
+        <v>26</v>
+      </c>
+      <c r="JR4" t="s">
+        <v>26</v>
+      </c>
+      <c r="JS4" t="s">
+        <v>26</v>
+      </c>
+      <c r="JT4" t="s">
+        <v>26</v>
+      </c>
+      <c r="JU4" t="s">
+        <v>26</v>
+      </c>
+      <c r="JV4" t="s">
+        <v>26</v>
+      </c>
+      <c r="JW4" t="s">
+        <v>26</v>
+      </c>
+      <c r="JX4" t="s">
+        <v>26</v>
+      </c>
+      <c r="JY4" t="s">
+        <v>26</v>
+      </c>
+      <c r="JZ4" t="s">
+        <v>26</v>
+      </c>
+      <c r="KA4" t="s">
+        <v>26</v>
+      </c>
+      <c r="KB4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3964,28 +4117,28 @@
         <v>229</v>
       </c>
       <c r="EI5" t="s">
-        <v>26</v>
+        <v>240</v>
       </c>
       <c r="EJ5" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EK5" t="s">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="EL5" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EM5" t="s">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="EN5" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EO5" t="s">
-        <v>26</v>
+        <v>244</v>
       </c>
       <c r="EP5" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EQ5" t="s">
         <v>26</v>
@@ -4363,6 +4516,54 @@
         <v>26</v>
       </c>
       <c r="JL5" t="s">
+        <v>26</v>
+      </c>
+      <c r="JM5" t="s">
+        <v>26</v>
+      </c>
+      <c r="JN5" t="s">
+        <v>26</v>
+      </c>
+      <c r="JO5" t="s">
+        <v>26</v>
+      </c>
+      <c r="JP5" t="s">
+        <v>26</v>
+      </c>
+      <c r="JQ5" t="s">
+        <v>26</v>
+      </c>
+      <c r="JR5" t="s">
+        <v>26</v>
+      </c>
+      <c r="JS5" t="s">
+        <v>26</v>
+      </c>
+      <c r="JT5" t="s">
+        <v>26</v>
+      </c>
+      <c r="JU5" t="s">
+        <v>26</v>
+      </c>
+      <c r="JV5" t="s">
+        <v>26</v>
+      </c>
+      <c r="JW5" t="s">
+        <v>26</v>
+      </c>
+      <c r="JX5" t="s">
+        <v>26</v>
+      </c>
+      <c r="JY5" t="s">
+        <v>26</v>
+      </c>
+      <c r="JZ5" t="s">
+        <v>26</v>
+      </c>
+      <c r="KA5" t="s">
+        <v>26</v>
+      </c>
+      <c r="KB5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4782,28 +4983,28 @@
         <v>229</v>
       </c>
       <c r="EI6" t="s">
-        <v>26</v>
+        <v>240</v>
       </c>
       <c r="EJ6" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EK6" t="s">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="EL6" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EM6" t="s">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="EN6" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EO6" t="s">
-        <v>26</v>
+        <v>244</v>
       </c>
       <c r="EP6" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EQ6" t="s">
         <v>26</v>
@@ -5181,6 +5382,54 @@
         <v>26</v>
       </c>
       <c r="JL6" t="s">
+        <v>26</v>
+      </c>
+      <c r="JM6" t="s">
+        <v>26</v>
+      </c>
+      <c r="JN6" t="s">
+        <v>26</v>
+      </c>
+      <c r="JO6" t="s">
+        <v>26</v>
+      </c>
+      <c r="JP6" t="s">
+        <v>26</v>
+      </c>
+      <c r="JQ6" t="s">
+        <v>26</v>
+      </c>
+      <c r="JR6" t="s">
+        <v>26</v>
+      </c>
+      <c r="JS6" t="s">
+        <v>26</v>
+      </c>
+      <c r="JT6" t="s">
+        <v>26</v>
+      </c>
+      <c r="JU6" t="s">
+        <v>26</v>
+      </c>
+      <c r="JV6" t="s">
+        <v>26</v>
+      </c>
+      <c r="JW6" t="s">
+        <v>26</v>
+      </c>
+      <c r="JX6" t="s">
+        <v>26</v>
+      </c>
+      <c r="JY6" t="s">
+        <v>26</v>
+      </c>
+      <c r="JZ6" t="s">
+        <v>26</v>
+      </c>
+      <c r="KA6" t="s">
+        <v>26</v>
+      </c>
+      <c r="KB6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5600,28 +5849,28 @@
         <v>229</v>
       </c>
       <c r="EI7" t="s">
-        <v>26</v>
+        <v>240</v>
       </c>
       <c r="EJ7" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EK7" t="s">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="EL7" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EM7" t="s">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="EN7" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EO7" t="s">
-        <v>26</v>
+        <v>244</v>
       </c>
       <c r="EP7" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EQ7" t="s">
         <v>26</v>
@@ -5999,6 +6248,54 @@
         <v>26</v>
       </c>
       <c r="JL7" t="s">
+        <v>26</v>
+      </c>
+      <c r="JM7" t="s">
+        <v>26</v>
+      </c>
+      <c r="JN7" t="s">
+        <v>26</v>
+      </c>
+      <c r="JO7" t="s">
+        <v>26</v>
+      </c>
+      <c r="JP7" t="s">
+        <v>26</v>
+      </c>
+      <c r="JQ7" t="s">
+        <v>26</v>
+      </c>
+      <c r="JR7" t="s">
+        <v>26</v>
+      </c>
+      <c r="JS7" t="s">
+        <v>26</v>
+      </c>
+      <c r="JT7" t="s">
+        <v>26</v>
+      </c>
+      <c r="JU7" t="s">
+        <v>26</v>
+      </c>
+      <c r="JV7" t="s">
+        <v>26</v>
+      </c>
+      <c r="JW7" t="s">
+        <v>26</v>
+      </c>
+      <c r="JX7" t="s">
+        <v>26</v>
+      </c>
+      <c r="JY7" t="s">
+        <v>26</v>
+      </c>
+      <c r="JZ7" t="s">
+        <v>26</v>
+      </c>
+      <c r="KA7" t="s">
+        <v>26</v>
+      </c>
+      <c r="KB7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -6418,28 +6715,28 @@
         <v>229</v>
       </c>
       <c r="EI8" t="s">
-        <v>26</v>
+        <v>240</v>
       </c>
       <c r="EJ8" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EK8" t="s">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="EL8" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EM8" t="s">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="EN8" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EO8" t="s">
-        <v>26</v>
+        <v>244</v>
       </c>
       <c r="EP8" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EQ8" t="s">
         <v>26</v>
@@ -6817,6 +7114,54 @@
         <v>26</v>
       </c>
       <c r="JL8" t="s">
+        <v>26</v>
+      </c>
+      <c r="JM8" t="s">
+        <v>26</v>
+      </c>
+      <c r="JN8" t="s">
+        <v>26</v>
+      </c>
+      <c r="JO8" t="s">
+        <v>26</v>
+      </c>
+      <c r="JP8" t="s">
+        <v>26</v>
+      </c>
+      <c r="JQ8" t="s">
+        <v>26</v>
+      </c>
+      <c r="JR8" t="s">
+        <v>26</v>
+      </c>
+      <c r="JS8" t="s">
+        <v>26</v>
+      </c>
+      <c r="JT8" t="s">
+        <v>26</v>
+      </c>
+      <c r="JU8" t="s">
+        <v>26</v>
+      </c>
+      <c r="JV8" t="s">
+        <v>26</v>
+      </c>
+      <c r="JW8" t="s">
+        <v>26</v>
+      </c>
+      <c r="JX8" t="s">
+        <v>26</v>
+      </c>
+      <c r="JY8" t="s">
+        <v>26</v>
+      </c>
+      <c r="JZ8" t="s">
+        <v>26</v>
+      </c>
+      <c r="KA8" t="s">
+        <v>26</v>
+      </c>
+      <c r="KB8" t="s">
         <v>26</v>
       </c>
     </row>
@@ -7236,28 +7581,28 @@
         <v>229</v>
       </c>
       <c r="EI9" t="s">
-        <v>26</v>
+        <v>240</v>
       </c>
       <c r="EJ9" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EK9" t="s">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="EL9" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EM9" t="s">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="EN9" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EO9" t="s">
-        <v>26</v>
+        <v>244</v>
       </c>
       <c r="EP9" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EQ9" t="s">
         <v>26</v>
@@ -7635,6 +7980,54 @@
         <v>26</v>
       </c>
       <c r="JL9" t="s">
+        <v>26</v>
+      </c>
+      <c r="JM9" t="s">
+        <v>26</v>
+      </c>
+      <c r="JN9" t="s">
+        <v>26</v>
+      </c>
+      <c r="JO9" t="s">
+        <v>26</v>
+      </c>
+      <c r="JP9" t="s">
+        <v>26</v>
+      </c>
+      <c r="JQ9" t="s">
+        <v>26</v>
+      </c>
+      <c r="JR9" t="s">
+        <v>26</v>
+      </c>
+      <c r="JS9" t="s">
+        <v>26</v>
+      </c>
+      <c r="JT9" t="s">
+        <v>26</v>
+      </c>
+      <c r="JU9" t="s">
+        <v>26</v>
+      </c>
+      <c r="JV9" t="s">
+        <v>26</v>
+      </c>
+      <c r="JW9" t="s">
+        <v>26</v>
+      </c>
+      <c r="JX9" t="s">
+        <v>26</v>
+      </c>
+      <c r="JY9" t="s">
+        <v>26</v>
+      </c>
+      <c r="JZ9" t="s">
+        <v>26</v>
+      </c>
+      <c r="KA9" t="s">
+        <v>26</v>
+      </c>
+      <c r="KB9" t="s">
         <v>26</v>
       </c>
     </row>
@@ -8054,28 +8447,28 @@
         <v>229</v>
       </c>
       <c r="EI10" t="s">
-        <v>26</v>
+        <v>240</v>
       </c>
       <c r="EJ10" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EK10" t="s">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="EL10" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EM10" t="s">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="EN10" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EO10" t="s">
-        <v>26</v>
+        <v>244</v>
       </c>
       <c r="EP10" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EQ10" t="s">
         <v>26</v>
@@ -8453,6 +8846,54 @@
         <v>26</v>
       </c>
       <c r="JL10" t="s">
+        <v>26</v>
+      </c>
+      <c r="JM10" t="s">
+        <v>26</v>
+      </c>
+      <c r="JN10" t="s">
+        <v>26</v>
+      </c>
+      <c r="JO10" t="s">
+        <v>26</v>
+      </c>
+      <c r="JP10" t="s">
+        <v>26</v>
+      </c>
+      <c r="JQ10" t="s">
+        <v>26</v>
+      </c>
+      <c r="JR10" t="s">
+        <v>26</v>
+      </c>
+      <c r="JS10" t="s">
+        <v>26</v>
+      </c>
+      <c r="JT10" t="s">
+        <v>26</v>
+      </c>
+      <c r="JU10" t="s">
+        <v>26</v>
+      </c>
+      <c r="JV10" t="s">
+        <v>26</v>
+      </c>
+      <c r="JW10" t="s">
+        <v>26</v>
+      </c>
+      <c r="JX10" t="s">
+        <v>26</v>
+      </c>
+      <c r="JY10" t="s">
+        <v>26</v>
+      </c>
+      <c r="JZ10" t="s">
+        <v>26</v>
+      </c>
+      <c r="KA10" t="s">
+        <v>26</v>
+      </c>
+      <c r="KB10" t="s">
         <v>26</v>
       </c>
     </row>
@@ -8872,28 +9313,28 @@
         <v>229</v>
       </c>
       <c r="EI11" t="s">
-        <v>26</v>
+        <v>240</v>
       </c>
       <c r="EJ11" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EK11" t="s">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="EL11" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EM11" t="s">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="EN11" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EO11" t="s">
-        <v>26</v>
+        <v>244</v>
       </c>
       <c r="EP11" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EQ11" t="s">
         <v>26</v>
@@ -9271,6 +9712,54 @@
         <v>26</v>
       </c>
       <c r="JL11" t="s">
+        <v>26</v>
+      </c>
+      <c r="JM11" t="s">
+        <v>26</v>
+      </c>
+      <c r="JN11" t="s">
+        <v>26</v>
+      </c>
+      <c r="JO11" t="s">
+        <v>26</v>
+      </c>
+      <c r="JP11" t="s">
+        <v>26</v>
+      </c>
+      <c r="JQ11" t="s">
+        <v>26</v>
+      </c>
+      <c r="JR11" t="s">
+        <v>26</v>
+      </c>
+      <c r="JS11" t="s">
+        <v>26</v>
+      </c>
+      <c r="JT11" t="s">
+        <v>26</v>
+      </c>
+      <c r="JU11" t="s">
+        <v>26</v>
+      </c>
+      <c r="JV11" t="s">
+        <v>26</v>
+      </c>
+      <c r="JW11" t="s">
+        <v>26</v>
+      </c>
+      <c r="JX11" t="s">
+        <v>26</v>
+      </c>
+      <c r="JY11" t="s">
+        <v>26</v>
+      </c>
+      <c r="JZ11" t="s">
+        <v>26</v>
+      </c>
+      <c r="KA11" t="s">
+        <v>26</v>
+      </c>
+      <c r="KB11" t="s">
         <v>26</v>
       </c>
     </row>
@@ -9690,28 +10179,28 @@
         <v>229</v>
       </c>
       <c r="EI12" t="s">
-        <v>26</v>
+        <v>240</v>
       </c>
       <c r="EJ12" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EK12" t="s">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="EL12" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EM12" t="s">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="EN12" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EO12" t="s">
-        <v>26</v>
+        <v>244</v>
       </c>
       <c r="EP12" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EQ12" t="s">
         <v>26</v>
@@ -10089,6 +10578,54 @@
         <v>26</v>
       </c>
       <c r="JL12" t="s">
+        <v>26</v>
+      </c>
+      <c r="JM12" t="s">
+        <v>26</v>
+      </c>
+      <c r="JN12" t="s">
+        <v>26</v>
+      </c>
+      <c r="JO12" t="s">
+        <v>26</v>
+      </c>
+      <c r="JP12" t="s">
+        <v>26</v>
+      </c>
+      <c r="JQ12" t="s">
+        <v>26</v>
+      </c>
+      <c r="JR12" t="s">
+        <v>26</v>
+      </c>
+      <c r="JS12" t="s">
+        <v>26</v>
+      </c>
+      <c r="JT12" t="s">
+        <v>26</v>
+      </c>
+      <c r="JU12" t="s">
+        <v>26</v>
+      </c>
+      <c r="JV12" t="s">
+        <v>26</v>
+      </c>
+      <c r="JW12" t="s">
+        <v>26</v>
+      </c>
+      <c r="JX12" t="s">
+        <v>26</v>
+      </c>
+      <c r="JY12" t="s">
+        <v>26</v>
+      </c>
+      <c r="JZ12" t="s">
+        <v>26</v>
+      </c>
+      <c r="KA12" t="s">
+        <v>26</v>
+      </c>
+      <c r="KB12" t="s">
         <v>26</v>
       </c>
     </row>
@@ -10508,28 +11045,28 @@
         <v>229</v>
       </c>
       <c r="EI13" t="s">
-        <v>26</v>
+        <v>240</v>
       </c>
       <c r="EJ13" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EK13" t="s">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="EL13" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EM13" t="s">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="EN13" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EO13" t="s">
-        <v>26</v>
+        <v>244</v>
       </c>
       <c r="EP13" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EQ13" t="s">
         <v>26</v>
@@ -10907,6 +11444,54 @@
         <v>26</v>
       </c>
       <c r="JL13" t="s">
+        <v>26</v>
+      </c>
+      <c r="JM13" t="s">
+        <v>26</v>
+      </c>
+      <c r="JN13" t="s">
+        <v>26</v>
+      </c>
+      <c r="JO13" t="s">
+        <v>26</v>
+      </c>
+      <c r="JP13" t="s">
+        <v>26</v>
+      </c>
+      <c r="JQ13" t="s">
+        <v>26</v>
+      </c>
+      <c r="JR13" t="s">
+        <v>26</v>
+      </c>
+      <c r="JS13" t="s">
+        <v>26</v>
+      </c>
+      <c r="JT13" t="s">
+        <v>26</v>
+      </c>
+      <c r="JU13" t="s">
+        <v>26</v>
+      </c>
+      <c r="JV13" t="s">
+        <v>26</v>
+      </c>
+      <c r="JW13" t="s">
+        <v>26</v>
+      </c>
+      <c r="JX13" t="s">
+        <v>26</v>
+      </c>
+      <c r="JY13" t="s">
+        <v>26</v>
+      </c>
+      <c r="JZ13" t="s">
+        <v>26</v>
+      </c>
+      <c r="KA13" t="s">
+        <v>26</v>
+      </c>
+      <c r="KB13" t="s">
         <v>26</v>
       </c>
     </row>
@@ -11326,28 +11911,28 @@
         <v>229</v>
       </c>
       <c r="EI14" t="s">
-        <v>26</v>
+        <v>240</v>
       </c>
       <c r="EJ14" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EK14" t="s">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="EL14" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EM14" t="s">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="EN14" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EO14" t="s">
-        <v>26</v>
+        <v>244</v>
       </c>
       <c r="EP14" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EQ14" t="s">
         <v>26</v>
@@ -11725,6 +12310,54 @@
         <v>26</v>
       </c>
       <c r="JL14" t="s">
+        <v>26</v>
+      </c>
+      <c r="JM14" t="s">
+        <v>26</v>
+      </c>
+      <c r="JN14" t="s">
+        <v>26</v>
+      </c>
+      <c r="JO14" t="s">
+        <v>26</v>
+      </c>
+      <c r="JP14" t="s">
+        <v>26</v>
+      </c>
+      <c r="JQ14" t="s">
+        <v>26</v>
+      </c>
+      <c r="JR14" t="s">
+        <v>26</v>
+      </c>
+      <c r="JS14" t="s">
+        <v>26</v>
+      </c>
+      <c r="JT14" t="s">
+        <v>26</v>
+      </c>
+      <c r="JU14" t="s">
+        <v>26</v>
+      </c>
+      <c r="JV14" t="s">
+        <v>26</v>
+      </c>
+      <c r="JW14" t="s">
+        <v>26</v>
+      </c>
+      <c r="JX14" t="s">
+        <v>26</v>
+      </c>
+      <c r="JY14" t="s">
+        <v>26</v>
+      </c>
+      <c r="JZ14" t="s">
+        <v>26</v>
+      </c>
+      <c r="KA14" t="s">
+        <v>26</v>
+      </c>
+      <c r="KB14" t="s">
         <v>26</v>
       </c>
     </row>
@@ -12144,28 +12777,28 @@
         <v>229</v>
       </c>
       <c r="EI15" t="s">
-        <v>26</v>
+        <v>240</v>
       </c>
       <c r="EJ15" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EK15" t="s">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="EL15" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EM15" t="s">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="EN15" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EO15" t="s">
-        <v>26</v>
+        <v>244</v>
       </c>
       <c r="EP15" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EQ15" t="s">
         <v>26</v>
@@ -12543,6 +13176,54 @@
         <v>26</v>
       </c>
       <c r="JL15" t="s">
+        <v>26</v>
+      </c>
+      <c r="JM15" t="s">
+        <v>26</v>
+      </c>
+      <c r="JN15" t="s">
+        <v>26</v>
+      </c>
+      <c r="JO15" t="s">
+        <v>26</v>
+      </c>
+      <c r="JP15" t="s">
+        <v>26</v>
+      </c>
+      <c r="JQ15" t="s">
+        <v>26</v>
+      </c>
+      <c r="JR15" t="s">
+        <v>26</v>
+      </c>
+      <c r="JS15" t="s">
+        <v>26</v>
+      </c>
+      <c r="JT15" t="s">
+        <v>26</v>
+      </c>
+      <c r="JU15" t="s">
+        <v>26</v>
+      </c>
+      <c r="JV15" t="s">
+        <v>26</v>
+      </c>
+      <c r="JW15" t="s">
+        <v>26</v>
+      </c>
+      <c r="JX15" t="s">
+        <v>26</v>
+      </c>
+      <c r="JY15" t="s">
+        <v>26</v>
+      </c>
+      <c r="JZ15" t="s">
+        <v>26</v>
+      </c>
+      <c r="KA15" t="s">
+        <v>26</v>
+      </c>
+      <c r="KB15" t="s">
         <v>26</v>
       </c>
     </row>
@@ -12962,28 +13643,28 @@
         <v>229</v>
       </c>
       <c r="EI16" t="s">
-        <v>26</v>
+        <v>240</v>
       </c>
       <c r="EJ16" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EK16" t="s">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="EL16" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EM16" t="s">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="EN16" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EO16" t="s">
-        <v>26</v>
+        <v>244</v>
       </c>
       <c r="EP16" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EQ16" t="s">
         <v>26</v>
@@ -13361,6 +14042,54 @@
         <v>26</v>
       </c>
       <c r="JL16" t="s">
+        <v>26</v>
+      </c>
+      <c r="JM16" t="s">
+        <v>26</v>
+      </c>
+      <c r="JN16" t="s">
+        <v>26</v>
+      </c>
+      <c r="JO16" t="s">
+        <v>26</v>
+      </c>
+      <c r="JP16" t="s">
+        <v>26</v>
+      </c>
+      <c r="JQ16" t="s">
+        <v>26</v>
+      </c>
+      <c r="JR16" t="s">
+        <v>26</v>
+      </c>
+      <c r="JS16" t="s">
+        <v>26</v>
+      </c>
+      <c r="JT16" t="s">
+        <v>26</v>
+      </c>
+      <c r="JU16" t="s">
+        <v>26</v>
+      </c>
+      <c r="JV16" t="s">
+        <v>26</v>
+      </c>
+      <c r="JW16" t="s">
+        <v>26</v>
+      </c>
+      <c r="JX16" t="s">
+        <v>26</v>
+      </c>
+      <c r="JY16" t="s">
+        <v>26</v>
+      </c>
+      <c r="JZ16" t="s">
+        <v>26</v>
+      </c>
+      <c r="KA16" t="s">
+        <v>26</v>
+      </c>
+      <c r="KB16" t="s">
         <v>26</v>
       </c>
     </row>
@@ -13780,28 +14509,28 @@
         <v>229</v>
       </c>
       <c r="EI17" t="s">
-        <v>26</v>
+        <v>240</v>
       </c>
       <c r="EJ17" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EK17" t="s">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="EL17" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EM17" t="s">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="EN17" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EO17" t="s">
-        <v>26</v>
+        <v>244</v>
       </c>
       <c r="EP17" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EQ17" t="s">
         <v>26</v>
@@ -14179,6 +14908,54 @@
         <v>26</v>
       </c>
       <c r="JL17" t="s">
+        <v>26</v>
+      </c>
+      <c r="JM17" t="s">
+        <v>26</v>
+      </c>
+      <c r="JN17" t="s">
+        <v>26</v>
+      </c>
+      <c r="JO17" t="s">
+        <v>26</v>
+      </c>
+      <c r="JP17" t="s">
+        <v>26</v>
+      </c>
+      <c r="JQ17" t="s">
+        <v>26</v>
+      </c>
+      <c r="JR17" t="s">
+        <v>26</v>
+      </c>
+      <c r="JS17" t="s">
+        <v>26</v>
+      </c>
+      <c r="JT17" t="s">
+        <v>26</v>
+      </c>
+      <c r="JU17" t="s">
+        <v>26</v>
+      </c>
+      <c r="JV17" t="s">
+        <v>26</v>
+      </c>
+      <c r="JW17" t="s">
+        <v>26</v>
+      </c>
+      <c r="JX17" t="s">
+        <v>26</v>
+      </c>
+      <c r="JY17" t="s">
+        <v>26</v>
+      </c>
+      <c r="JZ17" t="s">
+        <v>26</v>
+      </c>
+      <c r="KA17" t="s">
+        <v>26</v>
+      </c>
+      <c r="KB17" t="s">
         <v>26</v>
       </c>
     </row>
@@ -14598,28 +15375,28 @@
         <v>229</v>
       </c>
       <c r="EI18" t="s">
-        <v>26</v>
+        <v>240</v>
       </c>
       <c r="EJ18" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EK18" t="s">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="EL18" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EM18" t="s">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="EN18" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EO18" t="s">
-        <v>26</v>
+        <v>244</v>
       </c>
       <c r="EP18" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EQ18" t="s">
         <v>26</v>
@@ -14997,6 +15774,54 @@
         <v>26</v>
       </c>
       <c r="JL18" t="s">
+        <v>26</v>
+      </c>
+      <c r="JM18" t="s">
+        <v>26</v>
+      </c>
+      <c r="JN18" t="s">
+        <v>26</v>
+      </c>
+      <c r="JO18" t="s">
+        <v>26</v>
+      </c>
+      <c r="JP18" t="s">
+        <v>26</v>
+      </c>
+      <c r="JQ18" t="s">
+        <v>26</v>
+      </c>
+      <c r="JR18" t="s">
+        <v>26</v>
+      </c>
+      <c r="JS18" t="s">
+        <v>26</v>
+      </c>
+      <c r="JT18" t="s">
+        <v>26</v>
+      </c>
+      <c r="JU18" t="s">
+        <v>26</v>
+      </c>
+      <c r="JV18" t="s">
+        <v>26</v>
+      </c>
+      <c r="JW18" t="s">
+        <v>26</v>
+      </c>
+      <c r="JX18" t="s">
+        <v>26</v>
+      </c>
+      <c r="JY18" t="s">
+        <v>26</v>
+      </c>
+      <c r="JZ18" t="s">
+        <v>26</v>
+      </c>
+      <c r="KA18" t="s">
+        <v>26</v>
+      </c>
+      <c r="KB18" t="s">
         <v>26</v>
       </c>
     </row>
@@ -15416,28 +16241,28 @@
         <v>229</v>
       </c>
       <c r="EI19" t="s">
-        <v>26</v>
+        <v>240</v>
       </c>
       <c r="EJ19" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EK19" t="s">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="EL19" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EM19" t="s">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="EN19" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EO19" t="s">
-        <v>26</v>
+        <v>244</v>
       </c>
       <c r="EP19" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EQ19" t="s">
         <v>26</v>
@@ -15815,6 +16640,54 @@
         <v>26</v>
       </c>
       <c r="JL19" t="s">
+        <v>26</v>
+      </c>
+      <c r="JM19" t="s">
+        <v>26</v>
+      </c>
+      <c r="JN19" t="s">
+        <v>26</v>
+      </c>
+      <c r="JO19" t="s">
+        <v>26</v>
+      </c>
+      <c r="JP19" t="s">
+        <v>26</v>
+      </c>
+      <c r="JQ19" t="s">
+        <v>26</v>
+      </c>
+      <c r="JR19" t="s">
+        <v>26</v>
+      </c>
+      <c r="JS19" t="s">
+        <v>26</v>
+      </c>
+      <c r="JT19" t="s">
+        <v>26</v>
+      </c>
+      <c r="JU19" t="s">
+        <v>26</v>
+      </c>
+      <c r="JV19" t="s">
+        <v>26</v>
+      </c>
+      <c r="JW19" t="s">
+        <v>26</v>
+      </c>
+      <c r="JX19" t="s">
+        <v>26</v>
+      </c>
+      <c r="JY19" t="s">
+        <v>26</v>
+      </c>
+      <c r="JZ19" t="s">
+        <v>26</v>
+      </c>
+      <c r="KA19" t="s">
+        <v>26</v>
+      </c>
+      <c r="KB19" t="s">
         <v>26</v>
       </c>
     </row>
@@ -16234,28 +17107,28 @@
         <v>229</v>
       </c>
       <c r="EI20" t="s">
-        <v>26</v>
+        <v>240</v>
       </c>
       <c r="EJ20" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EK20" t="s">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="EL20" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EM20" t="s">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="EN20" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EO20" t="s">
-        <v>26</v>
+        <v>244</v>
       </c>
       <c r="EP20" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EQ20" t="s">
         <v>26</v>
@@ -16633,6 +17506,54 @@
         <v>26</v>
       </c>
       <c r="JL20" t="s">
+        <v>26</v>
+      </c>
+      <c r="JM20" t="s">
+        <v>26</v>
+      </c>
+      <c r="JN20" t="s">
+        <v>26</v>
+      </c>
+      <c r="JO20" t="s">
+        <v>26</v>
+      </c>
+      <c r="JP20" t="s">
+        <v>26</v>
+      </c>
+      <c r="JQ20" t="s">
+        <v>26</v>
+      </c>
+      <c r="JR20" t="s">
+        <v>26</v>
+      </c>
+      <c r="JS20" t="s">
+        <v>26</v>
+      </c>
+      <c r="JT20" t="s">
+        <v>26</v>
+      </c>
+      <c r="JU20" t="s">
+        <v>26</v>
+      </c>
+      <c r="JV20" t="s">
+        <v>26</v>
+      </c>
+      <c r="JW20" t="s">
+        <v>26</v>
+      </c>
+      <c r="JX20" t="s">
+        <v>26</v>
+      </c>
+      <c r="JY20" t="s">
+        <v>26</v>
+      </c>
+      <c r="JZ20" t="s">
+        <v>26</v>
+      </c>
+      <c r="KA20" t="s">
+        <v>26</v>
+      </c>
+      <c r="KB20" t="s">
         <v>26</v>
       </c>
     </row>
@@ -17052,28 +17973,28 @@
         <v>229</v>
       </c>
       <c r="EI21" t="s">
-        <v>26</v>
+        <v>240</v>
       </c>
       <c r="EJ21" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EK21" t="s">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="EL21" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EM21" t="s">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="EN21" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EO21" t="s">
-        <v>26</v>
+        <v>244</v>
       </c>
       <c r="EP21" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EQ21" t="s">
         <v>26</v>
@@ -17451,6 +18372,54 @@
         <v>26</v>
       </c>
       <c r="JL21" t="s">
+        <v>26</v>
+      </c>
+      <c r="JM21" t="s">
+        <v>26</v>
+      </c>
+      <c r="JN21" t="s">
+        <v>26</v>
+      </c>
+      <c r="JO21" t="s">
+        <v>26</v>
+      </c>
+      <c r="JP21" t="s">
+        <v>26</v>
+      </c>
+      <c r="JQ21" t="s">
+        <v>26</v>
+      </c>
+      <c r="JR21" t="s">
+        <v>26</v>
+      </c>
+      <c r="JS21" t="s">
+        <v>26</v>
+      </c>
+      <c r="JT21" t="s">
+        <v>26</v>
+      </c>
+      <c r="JU21" t="s">
+        <v>26</v>
+      </c>
+      <c r="JV21" t="s">
+        <v>26</v>
+      </c>
+      <c r="JW21" t="s">
+        <v>26</v>
+      </c>
+      <c r="JX21" t="s">
+        <v>26</v>
+      </c>
+      <c r="JY21" t="s">
+        <v>26</v>
+      </c>
+      <c r="JZ21" t="s">
+        <v>26</v>
+      </c>
+      <c r="KA21" t="s">
+        <v>26</v>
+      </c>
+      <c r="KB21" t="s">
         <v>26</v>
       </c>
     </row>
@@ -17870,28 +18839,28 @@
         <v>229</v>
       </c>
       <c r="EI22" t="s">
-        <v>26</v>
+        <v>240</v>
       </c>
       <c r="EJ22" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EK22" t="s">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="EL22" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EM22" t="s">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="EN22" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EO22" t="s">
-        <v>26</v>
+        <v>244</v>
       </c>
       <c r="EP22" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EQ22" t="s">
         <v>26</v>
@@ -18269,6 +19238,54 @@
         <v>26</v>
       </c>
       <c r="JL22" t="s">
+        <v>26</v>
+      </c>
+      <c r="JM22" t="s">
+        <v>26</v>
+      </c>
+      <c r="JN22" t="s">
+        <v>26</v>
+      </c>
+      <c r="JO22" t="s">
+        <v>26</v>
+      </c>
+      <c r="JP22" t="s">
+        <v>26</v>
+      </c>
+      <c r="JQ22" t="s">
+        <v>26</v>
+      </c>
+      <c r="JR22" t="s">
+        <v>26</v>
+      </c>
+      <c r="JS22" t="s">
+        <v>26</v>
+      </c>
+      <c r="JT22" t="s">
+        <v>26</v>
+      </c>
+      <c r="JU22" t="s">
+        <v>26</v>
+      </c>
+      <c r="JV22" t="s">
+        <v>26</v>
+      </c>
+      <c r="JW22" t="s">
+        <v>26</v>
+      </c>
+      <c r="JX22" t="s">
+        <v>26</v>
+      </c>
+      <c r="JY22" t="s">
+        <v>26</v>
+      </c>
+      <c r="JZ22" t="s">
+        <v>26</v>
+      </c>
+      <c r="KA22" t="s">
+        <v>26</v>
+      </c>
+      <c r="KB22" t="s">
         <v>26</v>
       </c>
     </row>
@@ -18688,28 +19705,28 @@
         <v>229</v>
       </c>
       <c r="EI23" t="s">
-        <v>26</v>
+        <v>240</v>
       </c>
       <c r="EJ23" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EK23" t="s">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="EL23" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EM23" t="s">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="EN23" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EO23" t="s">
-        <v>26</v>
+        <v>244</v>
       </c>
       <c r="EP23" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EQ23" t="s">
         <v>26</v>
@@ -19087,6 +20104,54 @@
         <v>26</v>
       </c>
       <c r="JL23" t="s">
+        <v>26</v>
+      </c>
+      <c r="JM23" t="s">
+        <v>26</v>
+      </c>
+      <c r="JN23" t="s">
+        <v>26</v>
+      </c>
+      <c r="JO23" t="s">
+        <v>26</v>
+      </c>
+      <c r="JP23" t="s">
+        <v>26</v>
+      </c>
+      <c r="JQ23" t="s">
+        <v>26</v>
+      </c>
+      <c r="JR23" t="s">
+        <v>26</v>
+      </c>
+      <c r="JS23" t="s">
+        <v>26</v>
+      </c>
+      <c r="JT23" t="s">
+        <v>26</v>
+      </c>
+      <c r="JU23" t="s">
+        <v>26</v>
+      </c>
+      <c r="JV23" t="s">
+        <v>26</v>
+      </c>
+      <c r="JW23" t="s">
+        <v>26</v>
+      </c>
+      <c r="JX23" t="s">
+        <v>26</v>
+      </c>
+      <c r="JY23" t="s">
+        <v>26</v>
+      </c>
+      <c r="JZ23" t="s">
+        <v>26</v>
+      </c>
+      <c r="KA23" t="s">
+        <v>26</v>
+      </c>
+      <c r="KB23" t="s">
         <v>26</v>
       </c>
     </row>
@@ -19506,28 +20571,28 @@
         <v>229</v>
       </c>
       <c r="EI24" t="s">
-        <v>26</v>
+        <v>240</v>
       </c>
       <c r="EJ24" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EK24" t="s">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="EL24" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EM24" t="s">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="EN24" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EO24" t="s">
-        <v>26</v>
+        <v>244</v>
       </c>
       <c r="EP24" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EQ24" t="s">
         <v>26</v>
@@ -19905,6 +20970,54 @@
         <v>26</v>
       </c>
       <c r="JL24" t="s">
+        <v>26</v>
+      </c>
+      <c r="JM24" t="s">
+        <v>26</v>
+      </c>
+      <c r="JN24" t="s">
+        <v>26</v>
+      </c>
+      <c r="JO24" t="s">
+        <v>26</v>
+      </c>
+      <c r="JP24" t="s">
+        <v>26</v>
+      </c>
+      <c r="JQ24" t="s">
+        <v>26</v>
+      </c>
+      <c r="JR24" t="s">
+        <v>26</v>
+      </c>
+      <c r="JS24" t="s">
+        <v>26</v>
+      </c>
+      <c r="JT24" t="s">
+        <v>26</v>
+      </c>
+      <c r="JU24" t="s">
+        <v>26</v>
+      </c>
+      <c r="JV24" t="s">
+        <v>26</v>
+      </c>
+      <c r="JW24" t="s">
+        <v>26</v>
+      </c>
+      <c r="JX24" t="s">
+        <v>26</v>
+      </c>
+      <c r="JY24" t="s">
+        <v>26</v>
+      </c>
+      <c r="JZ24" t="s">
+        <v>26</v>
+      </c>
+      <c r="KA24" t="s">
+        <v>26</v>
+      </c>
+      <c r="KB24" t="s">
         <v>26</v>
       </c>
     </row>
@@ -20324,28 +21437,28 @@
         <v>229</v>
       </c>
       <c r="EI25" t="s">
-        <v>26</v>
+        <v>240</v>
       </c>
       <c r="EJ25" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EK25" t="s">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="EL25" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EM25" t="s">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="EN25" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EO25" t="s">
-        <v>26</v>
+        <v>244</v>
       </c>
       <c r="EP25" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EQ25" t="s">
         <v>26</v>
@@ -20723,6 +21836,54 @@
         <v>26</v>
       </c>
       <c r="JL25" t="s">
+        <v>26</v>
+      </c>
+      <c r="JM25" t="s">
+        <v>26</v>
+      </c>
+      <c r="JN25" t="s">
+        <v>26</v>
+      </c>
+      <c r="JO25" t="s">
+        <v>26</v>
+      </c>
+      <c r="JP25" t="s">
+        <v>26</v>
+      </c>
+      <c r="JQ25" t="s">
+        <v>26</v>
+      </c>
+      <c r="JR25" t="s">
+        <v>26</v>
+      </c>
+      <c r="JS25" t="s">
+        <v>26</v>
+      </c>
+      <c r="JT25" t="s">
+        <v>26</v>
+      </c>
+      <c r="JU25" t="s">
+        <v>26</v>
+      </c>
+      <c r="JV25" t="s">
+        <v>26</v>
+      </c>
+      <c r="JW25" t="s">
+        <v>26</v>
+      </c>
+      <c r="JX25" t="s">
+        <v>26</v>
+      </c>
+      <c r="JY25" t="s">
+        <v>26</v>
+      </c>
+      <c r="JZ25" t="s">
+        <v>26</v>
+      </c>
+      <c r="KA25" t="s">
+        <v>26</v>
+      </c>
+      <c r="KB25" t="s">
         <v>26</v>
       </c>
     </row>
@@ -21142,28 +22303,28 @@
         <v>229</v>
       </c>
       <c r="EI26" t="s">
-        <v>26</v>
+        <v>240</v>
       </c>
       <c r="EJ26" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EK26" t="s">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="EL26" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EM26" t="s">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="EN26" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EO26" t="s">
-        <v>26</v>
+        <v>244</v>
       </c>
       <c r="EP26" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EQ26" t="s">
         <v>26</v>
@@ -21541,6 +22702,54 @@
         <v>26</v>
       </c>
       <c r="JL26" t="s">
+        <v>26</v>
+      </c>
+      <c r="JM26" t="s">
+        <v>26</v>
+      </c>
+      <c r="JN26" t="s">
+        <v>26</v>
+      </c>
+      <c r="JO26" t="s">
+        <v>26</v>
+      </c>
+      <c r="JP26" t="s">
+        <v>26</v>
+      </c>
+      <c r="JQ26" t="s">
+        <v>26</v>
+      </c>
+      <c r="JR26" t="s">
+        <v>26</v>
+      </c>
+      <c r="JS26" t="s">
+        <v>26</v>
+      </c>
+      <c r="JT26" t="s">
+        <v>26</v>
+      </c>
+      <c r="JU26" t="s">
+        <v>26</v>
+      </c>
+      <c r="JV26" t="s">
+        <v>26</v>
+      </c>
+      <c r="JW26" t="s">
+        <v>26</v>
+      </c>
+      <c r="JX26" t="s">
+        <v>26</v>
+      </c>
+      <c r="JY26" t="s">
+        <v>26</v>
+      </c>
+      <c r="JZ26" t="s">
+        <v>26</v>
+      </c>
+      <c r="KA26" t="s">
+        <v>26</v>
+      </c>
+      <c r="KB26" t="s">
         <v>26</v>
       </c>
     </row>
@@ -21960,28 +23169,28 @@
         <v>229</v>
       </c>
       <c r="EI27" t="s">
-        <v>26</v>
+        <v>240</v>
       </c>
       <c r="EJ27" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EK27" t="s">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="EL27" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EM27" t="s">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="EN27" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EO27" t="s">
-        <v>26</v>
+        <v>244</v>
       </c>
       <c r="EP27" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EQ27" t="s">
         <v>26</v>
@@ -22359,6 +23568,54 @@
         <v>26</v>
       </c>
       <c r="JL27" t="s">
+        <v>26</v>
+      </c>
+      <c r="JM27" t="s">
+        <v>26</v>
+      </c>
+      <c r="JN27" t="s">
+        <v>26</v>
+      </c>
+      <c r="JO27" t="s">
+        <v>26</v>
+      </c>
+      <c r="JP27" t="s">
+        <v>26</v>
+      </c>
+      <c r="JQ27" t="s">
+        <v>26</v>
+      </c>
+      <c r="JR27" t="s">
+        <v>26</v>
+      </c>
+      <c r="JS27" t="s">
+        <v>26</v>
+      </c>
+      <c r="JT27" t="s">
+        <v>26</v>
+      </c>
+      <c r="JU27" t="s">
+        <v>26</v>
+      </c>
+      <c r="JV27" t="s">
+        <v>26</v>
+      </c>
+      <c r="JW27" t="s">
+        <v>26</v>
+      </c>
+      <c r="JX27" t="s">
+        <v>26</v>
+      </c>
+      <c r="JY27" t="s">
+        <v>26</v>
+      </c>
+      <c r="JZ27" t="s">
+        <v>26</v>
+      </c>
+      <c r="KA27" t="s">
+        <v>26</v>
+      </c>
+      <c r="KB27" t="s">
         <v>26</v>
       </c>
     </row>
@@ -22778,28 +24035,28 @@
         <v>229</v>
       </c>
       <c r="EI28" t="s">
-        <v>26</v>
+        <v>240</v>
       </c>
       <c r="EJ28" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EK28" t="s">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="EL28" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EM28" t="s">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="EN28" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EO28" t="s">
-        <v>26</v>
+        <v>244</v>
       </c>
       <c r="EP28" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EQ28" t="s">
         <v>26</v>
@@ -23177,6 +24434,54 @@
         <v>26</v>
       </c>
       <c r="JL28" t="s">
+        <v>26</v>
+      </c>
+      <c r="JM28" t="s">
+        <v>26</v>
+      </c>
+      <c r="JN28" t="s">
+        <v>26</v>
+      </c>
+      <c r="JO28" t="s">
+        <v>26</v>
+      </c>
+      <c r="JP28" t="s">
+        <v>26</v>
+      </c>
+      <c r="JQ28" t="s">
+        <v>26</v>
+      </c>
+      <c r="JR28" t="s">
+        <v>26</v>
+      </c>
+      <c r="JS28" t="s">
+        <v>26</v>
+      </c>
+      <c r="JT28" t="s">
+        <v>26</v>
+      </c>
+      <c r="JU28" t="s">
+        <v>26</v>
+      </c>
+      <c r="JV28" t="s">
+        <v>26</v>
+      </c>
+      <c r="JW28" t="s">
+        <v>26</v>
+      </c>
+      <c r="JX28" t="s">
+        <v>26</v>
+      </c>
+      <c r="JY28" t="s">
+        <v>26</v>
+      </c>
+      <c r="JZ28" t="s">
+        <v>26</v>
+      </c>
+      <c r="KA28" t="s">
+        <v>26</v>
+      </c>
+      <c r="KB28" t="s">
         <v>26</v>
       </c>
     </row>
@@ -23596,28 +24901,28 @@
         <v>229</v>
       </c>
       <c r="EI29" t="s">
-        <v>26</v>
+        <v>240</v>
       </c>
       <c r="EJ29" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EK29" t="s">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="EL29" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EM29" t="s">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="EN29" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EO29" t="s">
-        <v>26</v>
+        <v>244</v>
       </c>
       <c r="EP29" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EQ29" t="s">
         <v>26</v>
@@ -23995,6 +25300,54 @@
         <v>26</v>
       </c>
       <c r="JL29" t="s">
+        <v>26</v>
+      </c>
+      <c r="JM29" t="s">
+        <v>26</v>
+      </c>
+      <c r="JN29" t="s">
+        <v>26</v>
+      </c>
+      <c r="JO29" t="s">
+        <v>26</v>
+      </c>
+      <c r="JP29" t="s">
+        <v>26</v>
+      </c>
+      <c r="JQ29" t="s">
+        <v>26</v>
+      </c>
+      <c r="JR29" t="s">
+        <v>26</v>
+      </c>
+      <c r="JS29" t="s">
+        <v>26</v>
+      </c>
+      <c r="JT29" t="s">
+        <v>26</v>
+      </c>
+      <c r="JU29" t="s">
+        <v>26</v>
+      </c>
+      <c r="JV29" t="s">
+        <v>26</v>
+      </c>
+      <c r="JW29" t="s">
+        <v>26</v>
+      </c>
+      <c r="JX29" t="s">
+        <v>26</v>
+      </c>
+      <c r="JY29" t="s">
+        <v>26</v>
+      </c>
+      <c r="JZ29" t="s">
+        <v>26</v>
+      </c>
+      <c r="KA29" t="s">
+        <v>26</v>
+      </c>
+      <c r="KB29" t="s">
         <v>26</v>
       </c>
     </row>
@@ -24414,28 +25767,28 @@
         <v>229</v>
       </c>
       <c r="EI30" t="s">
-        <v>26</v>
+        <v>240</v>
       </c>
       <c r="EJ30" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EK30" t="s">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="EL30" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EM30" t="s">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="EN30" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EO30" t="s">
-        <v>26</v>
+        <v>244</v>
       </c>
       <c r="EP30" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EQ30" t="s">
         <v>26</v>
@@ -24813,6 +26166,54 @@
         <v>26</v>
       </c>
       <c r="JL30" t="s">
+        <v>26</v>
+      </c>
+      <c r="JM30" t="s">
+        <v>26</v>
+      </c>
+      <c r="JN30" t="s">
+        <v>26</v>
+      </c>
+      <c r="JO30" t="s">
+        <v>26</v>
+      </c>
+      <c r="JP30" t="s">
+        <v>26</v>
+      </c>
+      <c r="JQ30" t="s">
+        <v>26</v>
+      </c>
+      <c r="JR30" t="s">
+        <v>26</v>
+      </c>
+      <c r="JS30" t="s">
+        <v>26</v>
+      </c>
+      <c r="JT30" t="s">
+        <v>26</v>
+      </c>
+      <c r="JU30" t="s">
+        <v>26</v>
+      </c>
+      <c r="JV30" t="s">
+        <v>26</v>
+      </c>
+      <c r="JW30" t="s">
+        <v>26</v>
+      </c>
+      <c r="JX30" t="s">
+        <v>26</v>
+      </c>
+      <c r="JY30" t="s">
+        <v>26</v>
+      </c>
+      <c r="JZ30" t="s">
+        <v>26</v>
+      </c>
+      <c r="KA30" t="s">
+        <v>26</v>
+      </c>
+      <c r="KB30" t="s">
         <v>26</v>
       </c>
     </row>
@@ -25232,28 +26633,28 @@
         <v>229</v>
       </c>
       <c r="EI31" t="s">
-        <v>26</v>
+        <v>240</v>
       </c>
       <c r="EJ31" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EK31" t="s">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="EL31" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EM31" t="s">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="EN31" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EO31" t="s">
-        <v>26</v>
+        <v>244</v>
       </c>
       <c r="EP31" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EQ31" t="s">
         <v>26</v>
@@ -25631,6 +27032,54 @@
         <v>26</v>
       </c>
       <c r="JL31" t="s">
+        <v>26</v>
+      </c>
+      <c r="JM31" t="s">
+        <v>26</v>
+      </c>
+      <c r="JN31" t="s">
+        <v>26</v>
+      </c>
+      <c r="JO31" t="s">
+        <v>26</v>
+      </c>
+      <c r="JP31" t="s">
+        <v>26</v>
+      </c>
+      <c r="JQ31" t="s">
+        <v>26</v>
+      </c>
+      <c r="JR31" t="s">
+        <v>26</v>
+      </c>
+      <c r="JS31" t="s">
+        <v>26</v>
+      </c>
+      <c r="JT31" t="s">
+        <v>26</v>
+      </c>
+      <c r="JU31" t="s">
+        <v>26</v>
+      </c>
+      <c r="JV31" t="s">
+        <v>26</v>
+      </c>
+      <c r="JW31" t="s">
+        <v>26</v>
+      </c>
+      <c r="JX31" t="s">
+        <v>26</v>
+      </c>
+      <c r="JY31" t="s">
+        <v>26</v>
+      </c>
+      <c r="JZ31" t="s">
+        <v>26</v>
+      </c>
+      <c r="KA31" t="s">
+        <v>26</v>
+      </c>
+      <c r="KB31" t="s">
         <v>26</v>
       </c>
     </row>
@@ -26050,28 +27499,28 @@
         <v>229</v>
       </c>
       <c r="EI32" t="s">
-        <v>26</v>
+        <v>240</v>
       </c>
       <c r="EJ32" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EK32" t="s">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="EL32" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EM32" t="s">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="EN32" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EO32" t="s">
-        <v>26</v>
+        <v>244</v>
       </c>
       <c r="EP32" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EQ32" t="s">
         <v>26</v>
@@ -26449,6 +27898,54 @@
         <v>26</v>
       </c>
       <c r="JL32" t="s">
+        <v>26</v>
+      </c>
+      <c r="JM32" t="s">
+        <v>26</v>
+      </c>
+      <c r="JN32" t="s">
+        <v>26</v>
+      </c>
+      <c r="JO32" t="s">
+        <v>26</v>
+      </c>
+      <c r="JP32" t="s">
+        <v>26</v>
+      </c>
+      <c r="JQ32" t="s">
+        <v>26</v>
+      </c>
+      <c r="JR32" t="s">
+        <v>26</v>
+      </c>
+      <c r="JS32" t="s">
+        <v>26</v>
+      </c>
+      <c r="JT32" t="s">
+        <v>26</v>
+      </c>
+      <c r="JU32" t="s">
+        <v>26</v>
+      </c>
+      <c r="JV32" t="s">
+        <v>26</v>
+      </c>
+      <c r="JW32" t="s">
+        <v>26</v>
+      </c>
+      <c r="JX32" t="s">
+        <v>26</v>
+      </c>
+      <c r="JY32" t="s">
+        <v>26</v>
+      </c>
+      <c r="JZ32" t="s">
+        <v>26</v>
+      </c>
+      <c r="KA32" t="s">
+        <v>26</v>
+      </c>
+      <c r="KB32" t="s">
         <v>26</v>
       </c>
     </row>
@@ -26868,28 +28365,28 @@
         <v>229</v>
       </c>
       <c r="EI33" t="s">
-        <v>26</v>
+        <v>240</v>
       </c>
       <c r="EJ33" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EK33" t="s">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="EL33" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EM33" t="s">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="EN33" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EO33" t="s">
-        <v>26</v>
+        <v>244</v>
       </c>
       <c r="EP33" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EQ33" t="s">
         <v>26</v>
@@ -27267,6 +28764,54 @@
         <v>26</v>
       </c>
       <c r="JL33" t="s">
+        <v>26</v>
+      </c>
+      <c r="JM33" t="s">
+        <v>26</v>
+      </c>
+      <c r="JN33" t="s">
+        <v>26</v>
+      </c>
+      <c r="JO33" t="s">
+        <v>26</v>
+      </c>
+      <c r="JP33" t="s">
+        <v>26</v>
+      </c>
+      <c r="JQ33" t="s">
+        <v>26</v>
+      </c>
+      <c r="JR33" t="s">
+        <v>26</v>
+      </c>
+      <c r="JS33" t="s">
+        <v>26</v>
+      </c>
+      <c r="JT33" t="s">
+        <v>26</v>
+      </c>
+      <c r="JU33" t="s">
+        <v>26</v>
+      </c>
+      <c r="JV33" t="s">
+        <v>26</v>
+      </c>
+      <c r="JW33" t="s">
+        <v>26</v>
+      </c>
+      <c r="JX33" t="s">
+        <v>26</v>
+      </c>
+      <c r="JY33" t="s">
+        <v>26</v>
+      </c>
+      <c r="JZ33" t="s">
+        <v>26</v>
+      </c>
+      <c r="KA33" t="s">
+        <v>26</v>
+      </c>
+      <c r="KB33" t="s">
         <v>26</v>
       </c>
     </row>
@@ -27686,28 +29231,28 @@
         <v>229</v>
       </c>
       <c r="EI34" t="s">
-        <v>26</v>
+        <v>240</v>
       </c>
       <c r="EJ34" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EK34" t="s">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="EL34" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EM34" t="s">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="EN34" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EO34" t="s">
-        <v>26</v>
+        <v>244</v>
       </c>
       <c r="EP34" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EQ34" t="s">
         <v>26</v>
@@ -28085,6 +29630,54 @@
         <v>26</v>
       </c>
       <c r="JL34" t="s">
+        <v>26</v>
+      </c>
+      <c r="JM34" t="s">
+        <v>26</v>
+      </c>
+      <c r="JN34" t="s">
+        <v>26</v>
+      </c>
+      <c r="JO34" t="s">
+        <v>26</v>
+      </c>
+      <c r="JP34" t="s">
+        <v>26</v>
+      </c>
+      <c r="JQ34" t="s">
+        <v>26</v>
+      </c>
+      <c r="JR34" t="s">
+        <v>26</v>
+      </c>
+      <c r="JS34" t="s">
+        <v>26</v>
+      </c>
+      <c r="JT34" t="s">
+        <v>26</v>
+      </c>
+      <c r="JU34" t="s">
+        <v>26</v>
+      </c>
+      <c r="JV34" t="s">
+        <v>26</v>
+      </c>
+      <c r="JW34" t="s">
+        <v>26</v>
+      </c>
+      <c r="JX34" t="s">
+        <v>26</v>
+      </c>
+      <c r="JY34" t="s">
+        <v>26</v>
+      </c>
+      <c r="JZ34" t="s">
+        <v>26</v>
+      </c>
+      <c r="KA34" t="s">
+        <v>26</v>
+      </c>
+      <c r="KB34" t="s">
         <v>26</v>
       </c>
     </row>
@@ -28504,28 +30097,28 @@
         <v>229</v>
       </c>
       <c r="EI35" t="s">
-        <v>26</v>
+        <v>240</v>
       </c>
       <c r="EJ35" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EK35" t="s">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="EL35" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EM35" t="s">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="EN35" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EO35" t="s">
-        <v>26</v>
+        <v>244</v>
       </c>
       <c r="EP35" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EQ35" t="s">
         <v>26</v>
@@ -28903,6 +30496,54 @@
         <v>26</v>
       </c>
       <c r="JL35" t="s">
+        <v>26</v>
+      </c>
+      <c r="JM35" t="s">
+        <v>26</v>
+      </c>
+      <c r="JN35" t="s">
+        <v>26</v>
+      </c>
+      <c r="JO35" t="s">
+        <v>26</v>
+      </c>
+      <c r="JP35" t="s">
+        <v>26</v>
+      </c>
+      <c r="JQ35" t="s">
+        <v>26</v>
+      </c>
+      <c r="JR35" t="s">
+        <v>26</v>
+      </c>
+      <c r="JS35" t="s">
+        <v>26</v>
+      </c>
+      <c r="JT35" t="s">
+        <v>26</v>
+      </c>
+      <c r="JU35" t="s">
+        <v>26</v>
+      </c>
+      <c r="JV35" t="s">
+        <v>26</v>
+      </c>
+      <c r="JW35" t="s">
+        <v>26</v>
+      </c>
+      <c r="JX35" t="s">
+        <v>26</v>
+      </c>
+      <c r="JY35" t="s">
+        <v>26</v>
+      </c>
+      <c r="JZ35" t="s">
+        <v>26</v>
+      </c>
+      <c r="KA35" t="s">
+        <v>26</v>
+      </c>
+      <c r="KB35" t="s">
         <v>26</v>
       </c>
     </row>
@@ -29322,28 +30963,28 @@
         <v>229</v>
       </c>
       <c r="EI36" t="s">
-        <v>26</v>
+        <v>240</v>
       </c>
       <c r="EJ36" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EK36" t="s">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="EL36" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EM36" t="s">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="EN36" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="EO36" t="s">
-        <v>26</v>
+        <v>244</v>
       </c>
       <c r="EP36" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="EQ36" t="s">
         <v>26</v>
@@ -29721,6 +31362,1786 @@
         <v>26</v>
       </c>
       <c r="JL36" t="s">
+        <v>26</v>
+      </c>
+      <c r="JM36" t="s">
+        <v>26</v>
+      </c>
+      <c r="JN36" t="s">
+        <v>26</v>
+      </c>
+      <c r="JO36" t="s">
+        <v>26</v>
+      </c>
+      <c r="JP36" t="s">
+        <v>26</v>
+      </c>
+      <c r="JQ36" t="s">
+        <v>26</v>
+      </c>
+      <c r="JR36" t="s">
+        <v>26</v>
+      </c>
+      <c r="JS36" t="s">
+        <v>26</v>
+      </c>
+      <c r="JT36" t="s">
+        <v>26</v>
+      </c>
+      <c r="JU36" t="s">
+        <v>26</v>
+      </c>
+      <c r="JV36" t="s">
+        <v>26</v>
+      </c>
+      <c r="JW36" t="s">
+        <v>26</v>
+      </c>
+      <c r="JX36" t="s">
+        <v>26</v>
+      </c>
+      <c r="JY36" t="s">
+        <v>26</v>
+      </c>
+      <c r="JZ36" t="s">
+        <v>26</v>
+      </c>
+      <c r="KA36" t="s">
+        <v>26</v>
+      </c>
+      <c r="KB36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>167</v>
+      </c>
+      <c r="B37" t="s">
+        <v>164</v>
+      </c>
+      <c r="C37" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" t="s">
+        <v>169</v>
+      </c>
+      <c r="F37" t="s">
+        <v>170</v>
+      </c>
+      <c r="G37" t="s">
+        <v>171</v>
+      </c>
+      <c r="H37" t="s">
+        <v>168</v>
+      </c>
+      <c r="I37" t="s">
+        <v>172</v>
+      </c>
+      <c r="J37" t="s">
+        <v>170</v>
+      </c>
+      <c r="K37" t="s">
+        <v>173</v>
+      </c>
+      <c r="L37" t="s">
+        <v>149</v>
+      </c>
+      <c r="M37" t="s">
+        <v>174</v>
+      </c>
+      <c r="N37" t="s">
+        <v>170</v>
+      </c>
+      <c r="O37" t="s">
+        <v>175</v>
+      </c>
+      <c r="P37" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>177</v>
+      </c>
+      <c r="R37" t="s">
+        <v>178</v>
+      </c>
+      <c r="S37" t="s">
+        <v>171</v>
+      </c>
+      <c r="T37" t="s">
+        <v>168</v>
+      </c>
+      <c r="U37" t="s">
+        <v>181</v>
+      </c>
+      <c r="V37" t="s">
+        <v>178</v>
+      </c>
+      <c r="W37" t="s">
+        <v>175</v>
+      </c>
+      <c r="X37" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>149</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>187</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>188</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>149</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>190</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>188</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>191</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>168</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>192</v>
+      </c>
+      <c r="AP37" t="s">
+        <v>188</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>193</v>
+      </c>
+      <c r="AR37" t="s">
+        <v>176</v>
+      </c>
+      <c r="AS37" t="s">
+        <v>194</v>
+      </c>
+      <c r="AT37" t="s">
+        <v>195</v>
+      </c>
+      <c r="AU37" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV37" t="s">
+        <v>176</v>
+      </c>
+      <c r="AW37" t="s">
+        <v>197</v>
+      </c>
+      <c r="AX37" t="s">
+        <v>195</v>
+      </c>
+      <c r="AY37" t="s">
+        <v>198</v>
+      </c>
+      <c r="AZ37" t="s">
+        <v>168</v>
+      </c>
+      <c r="BA37" t="s">
+        <v>199</v>
+      </c>
+      <c r="BB37" t="s">
+        <v>200</v>
+      </c>
+      <c r="BC37" t="s">
+        <v>201</v>
+      </c>
+      <c r="BD37" t="s">
+        <v>168</v>
+      </c>
+      <c r="BE37" t="s">
+        <v>202</v>
+      </c>
+      <c r="BF37" t="s">
+        <v>200</v>
+      </c>
+      <c r="BG37" t="s">
+        <v>203</v>
+      </c>
+      <c r="BH37" t="s">
+        <v>149</v>
+      </c>
+      <c r="BI37" t="s">
+        <v>204</v>
+      </c>
+      <c r="BJ37" t="s">
+        <v>200</v>
+      </c>
+      <c r="BK37" t="s">
+        <v>205</v>
+      </c>
+      <c r="BL37" t="s">
+        <v>176</v>
+      </c>
+      <c r="BM37" t="s">
+        <v>206</v>
+      </c>
+      <c r="BN37" t="s">
+        <v>200</v>
+      </c>
+      <c r="BO37" t="s">
+        <v>207</v>
+      </c>
+      <c r="BP37" t="s">
+        <v>176</v>
+      </c>
+      <c r="BQ37" t="s">
+        <v>208</v>
+      </c>
+      <c r="BR37" t="s">
+        <v>200</v>
+      </c>
+      <c r="BS37" t="s">
+        <v>209</v>
+      </c>
+      <c r="BT37" t="s">
+        <v>149</v>
+      </c>
+      <c r="BU37" t="s">
+        <v>210</v>
+      </c>
+      <c r="BV37" t="s">
+        <v>39</v>
+      </c>
+      <c r="BW37" t="s">
+        <v>211</v>
+      </c>
+      <c r="BX37" t="s">
+        <v>168</v>
+      </c>
+      <c r="BY37" t="s">
+        <v>212</v>
+      </c>
+      <c r="BZ37" t="s">
+        <v>39</v>
+      </c>
+      <c r="CA37" t="s">
+        <v>213</v>
+      </c>
+      <c r="CB37" t="s">
+        <v>168</v>
+      </c>
+      <c r="CC37" t="s">
+        <v>214</v>
+      </c>
+      <c r="CD37" t="s">
+        <v>39</v>
+      </c>
+      <c r="CE37" t="s">
+        <v>215</v>
+      </c>
+      <c r="CF37" t="s">
+        <v>149</v>
+      </c>
+      <c r="CG37" t="s">
+        <v>216</v>
+      </c>
+      <c r="CH37" t="s">
+        <v>39</v>
+      </c>
+      <c r="CI37" t="s">
+        <v>217</v>
+      </c>
+      <c r="CJ37" t="s">
+        <v>176</v>
+      </c>
+      <c r="CK37" t="s">
+        <v>218</v>
+      </c>
+      <c r="CL37" t="s">
+        <v>39</v>
+      </c>
+      <c r="CM37" t="s">
+        <v>219</v>
+      </c>
+      <c r="CN37" t="s">
+        <v>176</v>
+      </c>
+      <c r="CO37" t="s">
+        <v>220</v>
+      </c>
+      <c r="CP37" t="s">
+        <v>39</v>
+      </c>
+      <c r="CQ37" t="s">
+        <v>221</v>
+      </c>
+      <c r="CR37" t="s">
+        <v>149</v>
+      </c>
+      <c r="CS37" t="s">
+        <v>222</v>
+      </c>
+      <c r="CT37" t="s">
+        <v>39</v>
+      </c>
+      <c r="CU37" t="s">
+        <v>223</v>
+      </c>
+      <c r="CV37" t="s">
+        <v>168</v>
+      </c>
+      <c r="CW37" t="s">
+        <v>224</v>
+      </c>
+      <c r="CX37" t="s">
+        <v>36</v>
+      </c>
+      <c r="CY37" t="s">
+        <v>223</v>
+      </c>
+      <c r="CZ37" t="s">
+        <v>168</v>
+      </c>
+      <c r="DA37" t="s">
+        <v>225</v>
+      </c>
+      <c r="DB37" t="s">
+        <v>36</v>
+      </c>
+      <c r="DC37" t="s">
+        <v>221</v>
+      </c>
+      <c r="DD37" t="s">
+        <v>149</v>
+      </c>
+      <c r="DE37" t="s">
+        <v>226</v>
+      </c>
+      <c r="DF37" t="s">
+        <v>36</v>
+      </c>
+      <c r="DG37" t="s">
+        <v>219</v>
+      </c>
+      <c r="DH37" t="s">
+        <v>176</v>
+      </c>
+      <c r="DI37" t="s">
+        <v>227</v>
+      </c>
+      <c r="DJ37" t="s">
+        <v>146</v>
+      </c>
+      <c r="DK37" t="s">
+        <v>219</v>
+      </c>
+      <c r="DL37" t="s">
+        <v>176</v>
+      </c>
+      <c r="DM37" t="s">
+        <v>228</v>
+      </c>
+      <c r="DN37" t="s">
+        <v>146</v>
+      </c>
+      <c r="DO37" t="s">
+        <v>230</v>
+      </c>
+      <c r="DP37" t="s">
+        <v>176</v>
+      </c>
+      <c r="DQ37" t="s">
+        <v>231</v>
+      </c>
+      <c r="DR37" t="s">
+        <v>232</v>
+      </c>
+      <c r="DS37" t="s">
+        <v>233</v>
+      </c>
+      <c r="DT37" t="s">
+        <v>176</v>
+      </c>
+      <c r="DU37" t="s">
+        <v>234</v>
+      </c>
+      <c r="DV37" t="s">
+        <v>235</v>
+      </c>
+      <c r="DW37" t="s">
+        <v>233</v>
+      </c>
+      <c r="DX37" t="s">
+        <v>176</v>
+      </c>
+      <c r="DY37" t="s">
+        <v>236</v>
+      </c>
+      <c r="DZ37" t="s">
+        <v>237</v>
+      </c>
+      <c r="EA37" t="s">
+        <v>233</v>
+      </c>
+      <c r="EB37" t="s">
+        <v>176</v>
+      </c>
+      <c r="EC37" t="s">
+        <v>238</v>
+      </c>
+      <c r="ED37" t="s">
+        <v>239</v>
+      </c>
+      <c r="EE37" t="s">
+        <v>240</v>
+      </c>
+      <c r="EF37" t="s">
+        <v>168</v>
+      </c>
+      <c r="EG37" t="s">
+        <v>241</v>
+      </c>
+      <c r="EH37" t="s">
+        <v>229</v>
+      </c>
+      <c r="EI37" t="s">
+        <v>240</v>
+      </c>
+      <c r="EJ37" t="s">
+        <v>168</v>
+      </c>
+      <c r="EK37" t="s">
+        <v>242</v>
+      </c>
+      <c r="EL37" t="s">
+        <v>229</v>
+      </c>
+      <c r="EM37" t="s">
+        <v>243</v>
+      </c>
+      <c r="EN37" t="s">
+        <v>168</v>
+      </c>
+      <c r="EO37" t="s">
+        <v>244</v>
+      </c>
+      <c r="EP37" t="s">
+        <v>229</v>
+      </c>
+      <c r="EQ37" t="s">
+        <v>26</v>
+      </c>
+      <c r="ER37" t="s">
+        <v>26</v>
+      </c>
+      <c r="ES37" t="s">
+        <v>26</v>
+      </c>
+      <c r="ET37" t="s">
+        <v>26</v>
+      </c>
+      <c r="EU37" t="s">
+        <v>26</v>
+      </c>
+      <c r="EV37" t="s">
+        <v>26</v>
+      </c>
+      <c r="EW37" t="s">
+        <v>26</v>
+      </c>
+      <c r="EX37" t="s">
+        <v>26</v>
+      </c>
+      <c r="EY37" t="s">
+        <v>26</v>
+      </c>
+      <c r="EZ37" t="s">
+        <v>26</v>
+      </c>
+      <c r="FA37" t="s">
+        <v>26</v>
+      </c>
+      <c r="FB37" t="s">
+        <v>26</v>
+      </c>
+      <c r="FC37" t="s">
+        <v>26</v>
+      </c>
+      <c r="FD37" t="s">
+        <v>26</v>
+      </c>
+      <c r="FE37" t="s">
+        <v>26</v>
+      </c>
+      <c r="FF37" t="s">
+        <v>26</v>
+      </c>
+      <c r="FG37" t="s">
+        <v>26</v>
+      </c>
+      <c r="FH37" t="s">
+        <v>26</v>
+      </c>
+      <c r="FI37" t="s">
+        <v>26</v>
+      </c>
+      <c r="FJ37" t="s">
+        <v>26</v>
+      </c>
+      <c r="FK37" t="s">
+        <v>26</v>
+      </c>
+      <c r="FL37" t="s">
+        <v>26</v>
+      </c>
+      <c r="FM37" t="s">
+        <v>26</v>
+      </c>
+      <c r="FN37" t="s">
+        <v>26</v>
+      </c>
+      <c r="FO37" t="s">
+        <v>26</v>
+      </c>
+      <c r="FP37" t="s">
+        <v>26</v>
+      </c>
+      <c r="FQ37" t="s">
+        <v>26</v>
+      </c>
+      <c r="FR37" t="s">
+        <v>26</v>
+      </c>
+      <c r="FS37" t="s">
+        <v>26</v>
+      </c>
+      <c r="FT37" t="s">
+        <v>26</v>
+      </c>
+      <c r="FU37" t="s">
+        <v>26</v>
+      </c>
+      <c r="FV37" t="s">
+        <v>26</v>
+      </c>
+      <c r="FW37" t="s">
+        <v>26</v>
+      </c>
+      <c r="FX37" t="s">
+        <v>26</v>
+      </c>
+      <c r="FY37" t="s">
+        <v>26</v>
+      </c>
+      <c r="FZ37" t="s">
+        <v>26</v>
+      </c>
+      <c r="GA37" t="s">
+        <v>26</v>
+      </c>
+      <c r="GB37" t="s">
+        <v>26</v>
+      </c>
+      <c r="GC37" t="s">
+        <v>26</v>
+      </c>
+      <c r="GD37" t="s">
+        <v>26</v>
+      </c>
+      <c r="GE37" t="s">
+        <v>26</v>
+      </c>
+      <c r="GF37" t="s">
+        <v>26</v>
+      </c>
+      <c r="GG37" t="s">
+        <v>26</v>
+      </c>
+      <c r="GH37" t="s">
+        <v>26</v>
+      </c>
+      <c r="GI37" t="s">
+        <v>26</v>
+      </c>
+      <c r="GJ37" t="s">
+        <v>26</v>
+      </c>
+      <c r="GK37" t="s">
+        <v>26</v>
+      </c>
+      <c r="GL37" t="s">
+        <v>26</v>
+      </c>
+      <c r="GM37" t="s">
+        <v>26</v>
+      </c>
+      <c r="GN37" t="s">
+        <v>26</v>
+      </c>
+      <c r="GO37" t="s">
+        <v>26</v>
+      </c>
+      <c r="GP37" t="s">
+        <v>26</v>
+      </c>
+      <c r="GQ37" t="s">
+        <v>26</v>
+      </c>
+      <c r="GR37" t="s">
+        <v>26</v>
+      </c>
+      <c r="GS37" t="s">
+        <v>26</v>
+      </c>
+      <c r="GT37" t="s">
+        <v>26</v>
+      </c>
+      <c r="GU37" t="s">
+        <v>26</v>
+      </c>
+      <c r="GV37" t="s">
+        <v>26</v>
+      </c>
+      <c r="GW37" t="s">
+        <v>26</v>
+      </c>
+      <c r="GX37" t="s">
+        <v>26</v>
+      </c>
+      <c r="GY37" t="s">
+        <v>26</v>
+      </c>
+      <c r="GZ37" t="s">
+        <v>26</v>
+      </c>
+      <c r="HA37" t="s">
+        <v>26</v>
+      </c>
+      <c r="HB37" t="s">
+        <v>26</v>
+      </c>
+      <c r="HC37" t="s">
+        <v>26</v>
+      </c>
+      <c r="HD37" t="s">
+        <v>26</v>
+      </c>
+      <c r="HE37" t="s">
+        <v>26</v>
+      </c>
+      <c r="HF37" t="s">
+        <v>26</v>
+      </c>
+      <c r="HG37" t="s">
+        <v>26</v>
+      </c>
+      <c r="HH37" t="s">
+        <v>26</v>
+      </c>
+      <c r="HI37" t="s">
+        <v>26</v>
+      </c>
+      <c r="HJ37" t="s">
+        <v>26</v>
+      </c>
+      <c r="HK37" t="s">
+        <v>26</v>
+      </c>
+      <c r="HL37" t="s">
+        <v>26</v>
+      </c>
+      <c r="HM37" t="s">
+        <v>26</v>
+      </c>
+      <c r="HN37" t="s">
+        <v>26</v>
+      </c>
+      <c r="HO37" t="s">
+        <v>26</v>
+      </c>
+      <c r="HP37" t="s">
+        <v>26</v>
+      </c>
+      <c r="HQ37" t="s">
+        <v>26</v>
+      </c>
+      <c r="HR37" t="s">
+        <v>26</v>
+      </c>
+      <c r="HS37" t="s">
+        <v>26</v>
+      </c>
+      <c r="HT37" t="s">
+        <v>26</v>
+      </c>
+      <c r="HU37" t="s">
+        <v>26</v>
+      </c>
+      <c r="HV37" t="s">
+        <v>26</v>
+      </c>
+      <c r="HW37" t="s">
+        <v>26</v>
+      </c>
+      <c r="HX37" t="s">
+        <v>26</v>
+      </c>
+      <c r="HY37" t="s">
+        <v>26</v>
+      </c>
+      <c r="HZ37" t="s">
+        <v>26</v>
+      </c>
+      <c r="IA37" t="s">
+        <v>26</v>
+      </c>
+      <c r="IB37" t="s">
+        <v>26</v>
+      </c>
+      <c r="IC37" t="s">
+        <v>26</v>
+      </c>
+      <c r="ID37" t="s">
+        <v>26</v>
+      </c>
+      <c r="IE37" t="s">
+        <v>26</v>
+      </c>
+      <c r="IF37" t="s">
+        <v>26</v>
+      </c>
+      <c r="IG37" t="s">
+        <v>26</v>
+      </c>
+      <c r="IH37" t="s">
+        <v>26</v>
+      </c>
+      <c r="II37" t="s">
+        <v>26</v>
+      </c>
+      <c r="IJ37" t="s">
+        <v>26</v>
+      </c>
+      <c r="IK37" t="s">
+        <v>26</v>
+      </c>
+      <c r="IL37" t="s">
+        <v>26</v>
+      </c>
+      <c r="IM37" t="s">
+        <v>26</v>
+      </c>
+      <c r="IN37" t="s">
+        <v>26</v>
+      </c>
+      <c r="IO37" t="s">
+        <v>26</v>
+      </c>
+      <c r="IP37" t="s">
+        <v>26</v>
+      </c>
+      <c r="IQ37" t="s">
+        <v>26</v>
+      </c>
+      <c r="IR37" t="s">
+        <v>26</v>
+      </c>
+      <c r="IS37" t="s">
+        <v>26</v>
+      </c>
+      <c r="IT37" t="s">
+        <v>26</v>
+      </c>
+      <c r="IU37" t="s">
+        <v>26</v>
+      </c>
+      <c r="IV37" t="s">
+        <v>26</v>
+      </c>
+      <c r="IW37" t="s">
+        <v>26</v>
+      </c>
+      <c r="IX37" t="s">
+        <v>26</v>
+      </c>
+      <c r="IY37" t="s">
+        <v>26</v>
+      </c>
+      <c r="IZ37" t="s">
+        <v>26</v>
+      </c>
+      <c r="JA37" t="s">
+        <v>26</v>
+      </c>
+      <c r="JB37" t="s">
+        <v>26</v>
+      </c>
+      <c r="JC37" t="s">
+        <v>26</v>
+      </c>
+      <c r="JD37" t="s">
+        <v>26</v>
+      </c>
+      <c r="JE37" t="s">
+        <v>26</v>
+      </c>
+      <c r="JF37" t="s">
+        <v>26</v>
+      </c>
+      <c r="JG37" t="s">
+        <v>26</v>
+      </c>
+      <c r="JH37" t="s">
+        <v>26</v>
+      </c>
+      <c r="JI37" t="s">
+        <v>26</v>
+      </c>
+      <c r="JJ37" t="s">
+        <v>26</v>
+      </c>
+      <c r="JK37" t="s">
+        <v>26</v>
+      </c>
+      <c r="JL37" t="s">
+        <v>26</v>
+      </c>
+      <c r="JM37" t="s">
+        <v>26</v>
+      </c>
+      <c r="JN37" t="s">
+        <v>26</v>
+      </c>
+      <c r="JO37" t="s">
+        <v>26</v>
+      </c>
+      <c r="JP37" t="s">
+        <v>26</v>
+      </c>
+      <c r="JQ37" t="s">
+        <v>26</v>
+      </c>
+      <c r="JR37" t="s">
+        <v>26</v>
+      </c>
+      <c r="JS37" t="s">
+        <v>26</v>
+      </c>
+      <c r="JT37" t="s">
+        <v>26</v>
+      </c>
+      <c r="JU37" t="s">
+        <v>26</v>
+      </c>
+      <c r="JV37" t="s">
+        <v>26</v>
+      </c>
+      <c r="JW37" t="s">
+        <v>26</v>
+      </c>
+      <c r="JX37" t="s">
+        <v>26</v>
+      </c>
+      <c r="JY37" t="s">
+        <v>26</v>
+      </c>
+      <c r="JZ37" t="s">
+        <v>26</v>
+      </c>
+      <c r="KA37" t="s">
+        <v>26</v>
+      </c>
+      <c r="KB37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>167</v>
+      </c>
+      <c r="B38" t="s">
+        <v>164</v>
+      </c>
+      <c r="C38" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" t="s">
+        <v>169</v>
+      </c>
+      <c r="F38" t="s">
+        <v>170</v>
+      </c>
+      <c r="G38" t="s">
+        <v>171</v>
+      </c>
+      <c r="H38" t="s">
+        <v>168</v>
+      </c>
+      <c r="I38" t="s">
+        <v>172</v>
+      </c>
+      <c r="J38" t="s">
+        <v>170</v>
+      </c>
+      <c r="K38" t="s">
+        <v>173</v>
+      </c>
+      <c r="L38" t="s">
+        <v>149</v>
+      </c>
+      <c r="M38" t="s">
+        <v>174</v>
+      </c>
+      <c r="N38" t="s">
+        <v>170</v>
+      </c>
+      <c r="O38" t="s">
+        <v>175</v>
+      </c>
+      <c r="P38" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>177</v>
+      </c>
+      <c r="R38" t="s">
+        <v>178</v>
+      </c>
+      <c r="S38" t="s">
+        <v>171</v>
+      </c>
+      <c r="T38" t="s">
+        <v>168</v>
+      </c>
+      <c r="U38" t="s">
+        <v>181</v>
+      </c>
+      <c r="V38" t="s">
+        <v>178</v>
+      </c>
+      <c r="W38" t="s">
+        <v>175</v>
+      </c>
+      <c r="X38" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>149</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>187</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>188</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>149</v>
+      </c>
+      <c r="AK38" t="s">
+        <v>190</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>188</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>191</v>
+      </c>
+      <c r="AN38" t="s">
+        <v>168</v>
+      </c>
+      <c r="AO38" t="s">
+        <v>192</v>
+      </c>
+      <c r="AP38" t="s">
+        <v>188</v>
+      </c>
+      <c r="AQ38" t="s">
+        <v>193</v>
+      </c>
+      <c r="AR38" t="s">
+        <v>176</v>
+      </c>
+      <c r="AS38" t="s">
+        <v>194</v>
+      </c>
+      <c r="AT38" t="s">
+        <v>195</v>
+      </c>
+      <c r="AU38" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV38" t="s">
+        <v>176</v>
+      </c>
+      <c r="AW38" t="s">
+        <v>197</v>
+      </c>
+      <c r="AX38" t="s">
+        <v>195</v>
+      </c>
+      <c r="AY38" t="s">
+        <v>198</v>
+      </c>
+      <c r="AZ38" t="s">
+        <v>168</v>
+      </c>
+      <c r="BA38" t="s">
+        <v>199</v>
+      </c>
+      <c r="BB38" t="s">
+        <v>200</v>
+      </c>
+      <c r="BC38" t="s">
+        <v>201</v>
+      </c>
+      <c r="BD38" t="s">
+        <v>168</v>
+      </c>
+      <c r="BE38" t="s">
+        <v>202</v>
+      </c>
+      <c r="BF38" t="s">
+        <v>200</v>
+      </c>
+      <c r="BG38" t="s">
+        <v>203</v>
+      </c>
+      <c r="BH38" t="s">
+        <v>149</v>
+      </c>
+      <c r="BI38" t="s">
+        <v>204</v>
+      </c>
+      <c r="BJ38" t="s">
+        <v>200</v>
+      </c>
+      <c r="BK38" t="s">
+        <v>205</v>
+      </c>
+      <c r="BL38" t="s">
+        <v>176</v>
+      </c>
+      <c r="BM38" t="s">
+        <v>206</v>
+      </c>
+      <c r="BN38" t="s">
+        <v>200</v>
+      </c>
+      <c r="BO38" t="s">
+        <v>207</v>
+      </c>
+      <c r="BP38" t="s">
+        <v>176</v>
+      </c>
+      <c r="BQ38" t="s">
+        <v>208</v>
+      </c>
+      <c r="BR38" t="s">
+        <v>200</v>
+      </c>
+      <c r="BS38" t="s">
+        <v>209</v>
+      </c>
+      <c r="BT38" t="s">
+        <v>149</v>
+      </c>
+      <c r="BU38" t="s">
+        <v>210</v>
+      </c>
+      <c r="BV38" t="s">
+        <v>39</v>
+      </c>
+      <c r="BW38" t="s">
+        <v>211</v>
+      </c>
+      <c r="BX38" t="s">
+        <v>168</v>
+      </c>
+      <c r="BY38" t="s">
+        <v>212</v>
+      </c>
+      <c r="BZ38" t="s">
+        <v>39</v>
+      </c>
+      <c r="CA38" t="s">
+        <v>213</v>
+      </c>
+      <c r="CB38" t="s">
+        <v>168</v>
+      </c>
+      <c r="CC38" t="s">
+        <v>214</v>
+      </c>
+      <c r="CD38" t="s">
+        <v>39</v>
+      </c>
+      <c r="CE38" t="s">
+        <v>215</v>
+      </c>
+      <c r="CF38" t="s">
+        <v>149</v>
+      </c>
+      <c r="CG38" t="s">
+        <v>216</v>
+      </c>
+      <c r="CH38" t="s">
+        <v>39</v>
+      </c>
+      <c r="CI38" t="s">
+        <v>217</v>
+      </c>
+      <c r="CJ38" t="s">
+        <v>176</v>
+      </c>
+      <c r="CK38" t="s">
+        <v>218</v>
+      </c>
+      <c r="CL38" t="s">
+        <v>39</v>
+      </c>
+      <c r="CM38" t="s">
+        <v>219</v>
+      </c>
+      <c r="CN38" t="s">
+        <v>176</v>
+      </c>
+      <c r="CO38" t="s">
+        <v>220</v>
+      </c>
+      <c r="CP38" t="s">
+        <v>39</v>
+      </c>
+      <c r="CQ38" t="s">
+        <v>221</v>
+      </c>
+      <c r="CR38" t="s">
+        <v>149</v>
+      </c>
+      <c r="CS38" t="s">
+        <v>222</v>
+      </c>
+      <c r="CT38" t="s">
+        <v>39</v>
+      </c>
+      <c r="CU38" t="s">
+        <v>223</v>
+      </c>
+      <c r="CV38" t="s">
+        <v>168</v>
+      </c>
+      <c r="CW38" t="s">
+        <v>224</v>
+      </c>
+      <c r="CX38" t="s">
+        <v>36</v>
+      </c>
+      <c r="CY38" t="s">
+        <v>223</v>
+      </c>
+      <c r="CZ38" t="s">
+        <v>168</v>
+      </c>
+      <c r="DA38" t="s">
+        <v>225</v>
+      </c>
+      <c r="DB38" t="s">
+        <v>36</v>
+      </c>
+      <c r="DC38" t="s">
+        <v>221</v>
+      </c>
+      <c r="DD38" t="s">
+        <v>149</v>
+      </c>
+      <c r="DE38" t="s">
+        <v>226</v>
+      </c>
+      <c r="DF38" t="s">
+        <v>36</v>
+      </c>
+      <c r="DG38" t="s">
+        <v>219</v>
+      </c>
+      <c r="DH38" t="s">
+        <v>176</v>
+      </c>
+      <c r="DI38" t="s">
+        <v>227</v>
+      </c>
+      <c r="DJ38" t="s">
+        <v>146</v>
+      </c>
+      <c r="DK38" t="s">
+        <v>219</v>
+      </c>
+      <c r="DL38" t="s">
+        <v>176</v>
+      </c>
+      <c r="DM38" t="s">
+        <v>228</v>
+      </c>
+      <c r="DN38" t="s">
+        <v>146</v>
+      </c>
+      <c r="DO38" t="s">
+        <v>230</v>
+      </c>
+      <c r="DP38" t="s">
+        <v>176</v>
+      </c>
+      <c r="DQ38" t="s">
+        <v>231</v>
+      </c>
+      <c r="DR38" t="s">
+        <v>232</v>
+      </c>
+      <c r="DS38" t="s">
+        <v>233</v>
+      </c>
+      <c r="DT38" t="s">
+        <v>176</v>
+      </c>
+      <c r="DU38" t="s">
+        <v>234</v>
+      </c>
+      <c r="DV38" t="s">
+        <v>235</v>
+      </c>
+      <c r="DW38" t="s">
+        <v>233</v>
+      </c>
+      <c r="DX38" t="s">
+        <v>176</v>
+      </c>
+      <c r="DY38" t="s">
+        <v>236</v>
+      </c>
+      <c r="DZ38" t="s">
+        <v>237</v>
+      </c>
+      <c r="EA38" t="s">
+        <v>233</v>
+      </c>
+      <c r="EB38" t="s">
+        <v>176</v>
+      </c>
+      <c r="EC38" t="s">
+        <v>238</v>
+      </c>
+      <c r="ED38" t="s">
+        <v>239</v>
+      </c>
+      <c r="EE38" t="s">
+        <v>240</v>
+      </c>
+      <c r="EF38" t="s">
+        <v>168</v>
+      </c>
+      <c r="EG38" t="s">
+        <v>241</v>
+      </c>
+      <c r="EH38" t="s">
+        <v>229</v>
+      </c>
+      <c r="EI38" t="s">
+        <v>240</v>
+      </c>
+      <c r="EJ38" t="s">
+        <v>168</v>
+      </c>
+      <c r="EK38" t="s">
+        <v>242</v>
+      </c>
+      <c r="EL38" t="s">
+        <v>229</v>
+      </c>
+      <c r="EM38" t="s">
+        <v>243</v>
+      </c>
+      <c r="EN38" t="s">
+        <v>168</v>
+      </c>
+      <c r="EO38" t="s">
+        <v>244</v>
+      </c>
+      <c r="EP38" t="s">
+        <v>229</v>
+      </c>
+      <c r="EQ38" t="s">
+        <v>26</v>
+      </c>
+      <c r="ER38" t="s">
+        <v>26</v>
+      </c>
+      <c r="ES38" t="s">
+        <v>26</v>
+      </c>
+      <c r="ET38" t="s">
+        <v>26</v>
+      </c>
+      <c r="EU38" t="s">
+        <v>26</v>
+      </c>
+      <c r="EV38" t="s">
+        <v>26</v>
+      </c>
+      <c r="EW38" t="s">
+        <v>26</v>
+      </c>
+      <c r="EX38" t="s">
+        <v>26</v>
+      </c>
+      <c r="EY38" t="s">
+        <v>26</v>
+      </c>
+      <c r="EZ38" t="s">
+        <v>26</v>
+      </c>
+      <c r="FA38" t="s">
+        <v>26</v>
+      </c>
+      <c r="FB38" t="s">
+        <v>26</v>
+      </c>
+      <c r="FC38" t="s">
+        <v>26</v>
+      </c>
+      <c r="FD38" t="s">
+        <v>26</v>
+      </c>
+      <c r="FE38" t="s">
+        <v>26</v>
+      </c>
+      <c r="FF38" t="s">
+        <v>26</v>
+      </c>
+      <c r="FG38" t="s">
+        <v>26</v>
+      </c>
+      <c r="FH38" t="s">
+        <v>26</v>
+      </c>
+      <c r="FI38" t="s">
+        <v>26</v>
+      </c>
+      <c r="FJ38" t="s">
+        <v>26</v>
+      </c>
+      <c r="FK38" t="s">
+        <v>26</v>
+      </c>
+      <c r="FL38" t="s">
+        <v>26</v>
+      </c>
+      <c r="FM38" t="s">
+        <v>26</v>
+      </c>
+      <c r="FN38" t="s">
+        <v>26</v>
+      </c>
+      <c r="FO38" t="s">
+        <v>26</v>
+      </c>
+      <c r="FP38" t="s">
+        <v>26</v>
+      </c>
+      <c r="FQ38" t="s">
+        <v>26</v>
+      </c>
+      <c r="FR38" t="s">
+        <v>26</v>
+      </c>
+      <c r="FS38" t="s">
+        <v>26</v>
+      </c>
+      <c r="FT38" t="s">
+        <v>26</v>
+      </c>
+      <c r="FU38" t="s">
+        <v>26</v>
+      </c>
+      <c r="FV38" t="s">
+        <v>26</v>
+      </c>
+      <c r="FW38" t="s">
+        <v>26</v>
+      </c>
+      <c r="FX38" t="s">
+        <v>26</v>
+      </c>
+      <c r="FY38" t="s">
+        <v>26</v>
+      </c>
+      <c r="FZ38" t="s">
+        <v>26</v>
+      </c>
+      <c r="GA38" t="s">
+        <v>26</v>
+      </c>
+      <c r="GB38" t="s">
+        <v>26</v>
+      </c>
+      <c r="GC38" t="s">
+        <v>26</v>
+      </c>
+      <c r="GD38" t="s">
+        <v>26</v>
+      </c>
+      <c r="GE38" t="s">
+        <v>26</v>
+      </c>
+      <c r="GF38" t="s">
+        <v>26</v>
+      </c>
+      <c r="GG38" t="s">
+        <v>26</v>
+      </c>
+      <c r="GH38" t="s">
+        <v>26</v>
+      </c>
+      <c r="GI38" t="s">
+        <v>26</v>
+      </c>
+      <c r="GJ38" t="s">
+        <v>26</v>
+      </c>
+      <c r="GK38" t="s">
+        <v>26</v>
+      </c>
+      <c r="GL38" t="s">
+        <v>26</v>
+      </c>
+      <c r="GM38" t="s">
+        <v>26</v>
+      </c>
+      <c r="GN38" t="s">
+        <v>26</v>
+      </c>
+      <c r="GO38" t="s">
+        <v>26</v>
+      </c>
+      <c r="GP38" t="s">
+        <v>26</v>
+      </c>
+      <c r="GQ38" t="s">
+        <v>26</v>
+      </c>
+      <c r="GR38" t="s">
+        <v>26</v>
+      </c>
+      <c r="GS38" t="s">
+        <v>26</v>
+      </c>
+      <c r="GT38" t="s">
+        <v>26</v>
+      </c>
+      <c r="GU38" t="s">
+        <v>26</v>
+      </c>
+      <c r="GV38" t="s">
+        <v>26</v>
+      </c>
+      <c r="GW38" t="s">
+        <v>26</v>
+      </c>
+      <c r="GX38" t="s">
+        <v>26</v>
+      </c>
+      <c r="GY38" t="s">
+        <v>26</v>
+      </c>
+      <c r="GZ38" t="s">
+        <v>26</v>
+      </c>
+      <c r="HA38" t="s">
+        <v>26</v>
+      </c>
+      <c r="HB38" t="s">
+        <v>26</v>
+      </c>
+      <c r="HC38" t="s">
+        <v>26</v>
+      </c>
+      <c r="HD38" t="s">
+        <v>26</v>
+      </c>
+      <c r="HE38" t="s">
+        <v>26</v>
+      </c>
+      <c r="HF38" t="s">
+        <v>26</v>
+      </c>
+      <c r="HG38" t="s">
+        <v>26</v>
+      </c>
+      <c r="HH38" t="s">
+        <v>26</v>
+      </c>
+      <c r="HI38" t="s">
+        <v>26</v>
+      </c>
+      <c r="HJ38" t="s">
+        <v>26</v>
+      </c>
+      <c r="HK38" t="s">
+        <v>26</v>
+      </c>
+      <c r="HL38" t="s">
+        <v>26</v>
+      </c>
+      <c r="HM38" t="s">
+        <v>26</v>
+      </c>
+      <c r="HN38" t="s">
+        <v>26</v>
+      </c>
+      <c r="HO38" t="s">
+        <v>26</v>
+      </c>
+      <c r="HP38" t="s">
+        <v>26</v>
+      </c>
+      <c r="HQ38" t="s">
+        <v>26</v>
+      </c>
+      <c r="HR38" t="s">
+        <v>26</v>
+      </c>
+      <c r="HS38" t="s">
+        <v>26</v>
+      </c>
+      <c r="HT38" t="s">
+        <v>26</v>
+      </c>
+      <c r="HU38" t="s">
+        <v>26</v>
+      </c>
+      <c r="HV38" t="s">
+        <v>26</v>
+      </c>
+      <c r="HW38" t="s">
+        <v>26</v>
+      </c>
+      <c r="HX38" t="s">
+        <v>26</v>
+      </c>
+      <c r="HY38" t="s">
+        <v>26</v>
+      </c>
+      <c r="HZ38" t="s">
+        <v>26</v>
+      </c>
+      <c r="IA38" t="s">
+        <v>26</v>
+      </c>
+      <c r="IB38" t="s">
+        <v>26</v>
+      </c>
+      <c r="IC38" t="s">
+        <v>26</v>
+      </c>
+      <c r="ID38" t="s">
+        <v>26</v>
+      </c>
+      <c r="IE38" t="s">
+        <v>26</v>
+      </c>
+      <c r="IF38" t="s">
+        <v>26</v>
+      </c>
+      <c r="IG38" t="s">
+        <v>26</v>
+      </c>
+      <c r="IH38" t="s">
+        <v>26</v>
+      </c>
+      <c r="II38" t="s">
+        <v>26</v>
+      </c>
+      <c r="IJ38" t="s">
+        <v>26</v>
+      </c>
+      <c r="IK38" t="s">
+        <v>26</v>
+      </c>
+      <c r="IL38" t="s">
+        <v>26</v>
+      </c>
+      <c r="IM38" t="s">
+        <v>26</v>
+      </c>
+      <c r="IN38" t="s">
+        <v>26</v>
+      </c>
+      <c r="IO38" t="s">
+        <v>26</v>
+      </c>
+      <c r="IP38" t="s">
+        <v>26</v>
+      </c>
+      <c r="IQ38" t="s">
+        <v>26</v>
+      </c>
+      <c r="IR38" t="s">
+        <v>26</v>
+      </c>
+      <c r="IS38" t="s">
+        <v>26</v>
+      </c>
+      <c r="IT38" t="s">
+        <v>26</v>
+      </c>
+      <c r="IU38" t="s">
+        <v>26</v>
+      </c>
+      <c r="IV38" t="s">
+        <v>26</v>
+      </c>
+      <c r="IW38" t="s">
+        <v>26</v>
+      </c>
+      <c r="IX38" t="s">
+        <v>26</v>
+      </c>
+      <c r="IY38" t="s">
+        <v>26</v>
+      </c>
+      <c r="IZ38" t="s">
+        <v>26</v>
+      </c>
+      <c r="JA38" t="s">
+        <v>26</v>
+      </c>
+      <c r="JB38" t="s">
+        <v>26</v>
+      </c>
+      <c r="JC38" t="s">
+        <v>26</v>
+      </c>
+      <c r="JD38" t="s">
+        <v>26</v>
+      </c>
+      <c r="JE38" t="s">
+        <v>26</v>
+      </c>
+      <c r="JF38" t="s">
+        <v>26</v>
+      </c>
+      <c r="JG38" t="s">
+        <v>26</v>
+      </c>
+      <c r="JH38" t="s">
+        <v>26</v>
+      </c>
+      <c r="JI38" t="s">
+        <v>26</v>
+      </c>
+      <c r="JJ38" t="s">
+        <v>26</v>
+      </c>
+      <c r="JK38" t="s">
+        <v>26</v>
+      </c>
+      <c r="JL38" t="s">
+        <v>26</v>
+      </c>
+      <c r="JM38" t="s">
+        <v>26</v>
+      </c>
+      <c r="JN38" t="s">
+        <v>26</v>
+      </c>
+      <c r="JO38" t="s">
+        <v>26</v>
+      </c>
+      <c r="JP38" t="s">
+        <v>26</v>
+      </c>
+      <c r="JQ38" t="s">
+        <v>26</v>
+      </c>
+      <c r="JR38" t="s">
+        <v>26</v>
+      </c>
+      <c r="JS38" t="s">
+        <v>26</v>
+      </c>
+      <c r="JT38" t="s">
+        <v>26</v>
+      </c>
+      <c r="JU38" t="s">
+        <v>26</v>
+      </c>
+      <c r="JV38" t="s">
+        <v>26</v>
+      </c>
+      <c r="JW38" t="s">
+        <v>26</v>
+      </c>
+      <c r="JX38" t="s">
+        <v>26</v>
+      </c>
+      <c r="JY38" t="s">
+        <v>26</v>
+      </c>
+      <c r="JZ38" t="s">
+        <v>26</v>
+      </c>
+      <c r="KA38" t="s">
+        <v>26</v>
+      </c>
+      <c r="KB38" t="s">
         <v>26</v>
       </c>
     </row>
